--- a/pm/stock.xlsx
+++ b/pm/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\syncd_r_data\portfoliomngt\ course\lectures\07_equity_&amp;_factors\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74594F90-D657-D04B-B1C0-E6B5F3E2E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC54B52-AAE8-4903-AA3C-4E049B34EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="52" windowWidth="21600" windowHeight="12233" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="544">
   <si>
     <t>[Information Version]</t>
   </si>
@@ -1617,6 +1617,42 @@
   </si>
   <si>
     <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t>2023/01</t>
+  </si>
+  <si>
+    <t>2023/02</t>
+  </si>
+  <si>
+    <t>2023/03</t>
+  </si>
+  <si>
+    <t>2023/04</t>
+  </si>
+  <si>
+    <t>2023/05</t>
+  </si>
+  <si>
+    <t>2023/06</t>
   </si>
 </sst>
 </file>
@@ -1706,47 +1742,47 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2068,68 +2104,68 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="501" width="10" style="1" customWidth="1"/>
     <col min="502" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2151,77 +2187,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2253,7 +2289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2264,12 +2300,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -2277,17 +2313,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2295,7 +2331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2303,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2311,12 +2347,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -2324,7 +2360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2332,7 +2368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
@@ -2340,7 +2376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -2348,12 +2384,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
@@ -2361,7 +2397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
@@ -2369,17 +2405,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2387,12 +2423,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2400,7 +2436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -2408,7 +2444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -2416,12 +2452,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -2429,7 +2465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -2437,7 +2473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
@@ -2445,12 +2481,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -2458,7 +2494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -2466,7 +2502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -2474,12 +2510,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -2487,17 +2523,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -2514,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>90</v>
       </c>
@@ -2522,7 +2558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -2530,12 +2566,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -2546,7 +2582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>14</v>
       </c>
@@ -2568,12 +2604,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>18</v>
       </c>
@@ -2590,7 +2626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -2607,7 +2643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>20</v>
       </c>
@@ -2624,7 +2660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
@@ -2641,7 +2677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>22</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>23</v>
       </c>
@@ -2663,7 +2699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>24</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>25</v>
       </c>
@@ -2697,7 +2733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>26</v>
       </c>
@@ -2714,7 +2750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>27</v>
       </c>
@@ -2725,12 +2761,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>114</v>
       </c>
@@ -2738,7 +2774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>116</v>
       </c>
@@ -2794,7 +2830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>29</v>
       </c>
@@ -2811,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>114</v>
       </c>
@@ -2822,7 +2858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>29</v>
       </c>
@@ -2839,12 +2875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>131</v>
       </c>
@@ -2852,7 +2888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>132</v>
       </c>
@@ -2860,7 +2896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>133</v>
       </c>
@@ -2877,16 +2913,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L399"/>
+  <dimension ref="A1:L411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C400" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" customWidth="1"/>
@@ -2895,7 +2931,7 @@
     <col min="14" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -2929,7 +2965,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -2963,7 +2999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -2997,7 +3033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -3031,7 +3067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -3065,7 +3101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -3099,7 +3135,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -3133,7 +3169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -3167,7 +3203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -3201,7 +3237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
@@ -3230,7 +3266,7 @@
         <v>7524.27</v>
       </c>
       <c r="J10" s="8">
-        <v>11777.78</v>
+        <v>1177.78</v>
       </c>
       <c r="K10" s="7">
         <v>4460</v>
@@ -3239,7 +3275,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>141</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>6796.12</v>
       </c>
       <c r="J11" s="8">
-        <v>14074.07</v>
+        <v>1407.41</v>
       </c>
       <c r="K11" s="7">
         <v>3600</v>
@@ -3277,7 +3313,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -3306,7 +3342,7 @@
         <v>4708.74</v>
       </c>
       <c r="J12" s="8">
-        <v>15629.63</v>
+        <v>1562.96</v>
       </c>
       <c r="K12" s="7">
         <v>2580</v>
@@ -3315,7 +3351,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
@@ -3344,7 +3380,7 @@
         <v>5097.09</v>
       </c>
       <c r="J13" s="8">
-        <v>14962.96</v>
+        <v>1496.3</v>
       </c>
       <c r="K13" s="7">
         <v>2720</v>
@@ -3353,7 +3389,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>141</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>5631.07</v>
       </c>
       <c r="J14" s="8">
-        <v>15333.33</v>
+        <v>1533.33</v>
       </c>
       <c r="K14" s="7">
         <v>3260</v>
@@ -3391,7 +3427,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>141</v>
       </c>
@@ -3420,7 +3456,7 @@
         <v>4951.46</v>
       </c>
       <c r="J15" s="8">
-        <v>20962.96</v>
+        <v>2096.3000000000002</v>
       </c>
       <c r="K15" s="7">
         <v>2800</v>
@@ -3429,7 +3465,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>141</v>
       </c>
@@ -3458,7 +3494,7 @@
         <v>4563.1099999999997</v>
       </c>
       <c r="J16" s="8">
-        <v>21407.41</v>
+        <v>2140.7399999999998</v>
       </c>
       <c r="K16" s="7">
         <v>3060</v>
@@ -3467,7 +3503,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>141</v>
       </c>
@@ -3496,7 +3532,7 @@
         <v>3878.64</v>
       </c>
       <c r="J17" s="8">
-        <v>20962.96</v>
+        <v>2096.3000000000002</v>
       </c>
       <c r="K17" s="7">
         <v>2600</v>
@@ -3505,7 +3541,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>141</v>
       </c>
@@ -3534,7 +3570,7 @@
         <v>3262.14</v>
       </c>
       <c r="J18" s="8">
-        <v>18370.37</v>
+        <v>1837.04</v>
       </c>
       <c r="K18" s="7">
         <v>2480</v>
@@ -3543,7 +3579,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
@@ -3572,7 +3608,7 @@
         <v>3883.49</v>
       </c>
       <c r="J19" s="8">
-        <v>18518.52</v>
+        <v>1851.85</v>
       </c>
       <c r="K19" s="7">
         <v>2600</v>
@@ -3581,7 +3617,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
@@ -3610,7 +3646,7 @@
         <v>3334.95</v>
       </c>
       <c r="J20" s="8">
-        <v>15851.85</v>
+        <v>1585.19</v>
       </c>
       <c r="K20" s="7">
         <v>2040</v>
@@ -3619,7 +3655,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -3648,7 +3684,7 @@
         <v>3655.34</v>
       </c>
       <c r="J21" s="7">
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="K21" s="7">
         <v>2260</v>
@@ -3657,7 +3693,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
@@ -3686,7 +3722,7 @@
         <v>3864.08</v>
       </c>
       <c r="J22" s="8">
-        <v>15259.26</v>
+        <v>1525.93</v>
       </c>
       <c r="K22" s="7">
         <v>2100</v>
@@ -3695,7 +3731,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>141</v>
       </c>
@@ -3724,7 +3760,7 @@
         <v>4436.8900000000003</v>
       </c>
       <c r="J23" s="9">
-        <v>16296.3</v>
+        <v>1629.63</v>
       </c>
       <c r="K23" s="7">
         <v>2440</v>
@@ -3733,7 +3769,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>141</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>4315.53</v>
       </c>
       <c r="J24" s="7">
-        <v>17400</v>
+        <v>1740</v>
       </c>
       <c r="K24" s="7">
         <v>2420</v>
@@ -3771,7 +3807,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>141</v>
       </c>
@@ -3800,7 +3836,7 @@
         <v>4199.03</v>
       </c>
       <c r="J25" s="7">
-        <v>15800</v>
+        <v>1580</v>
       </c>
       <c r="K25" s="7">
         <v>2500</v>
@@ -3809,7 +3845,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>141</v>
       </c>
@@ -3838,7 +3874,7 @@
         <v>4296.12</v>
       </c>
       <c r="J26" s="7">
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="K26" s="7">
         <v>2600</v>
@@ -3847,7 +3883,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>141</v>
       </c>
@@ -3876,7 +3912,7 @@
         <v>3834.95</v>
       </c>
       <c r="J27" s="7">
-        <v>13600</v>
+        <v>1360</v>
       </c>
       <c r="K27" s="7">
         <v>2360</v>
@@ -3885,7 +3921,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>141</v>
       </c>
@@ -3914,7 +3950,7 @@
         <v>3728.16</v>
       </c>
       <c r="J28" s="7">
-        <v>13100</v>
+        <v>1310</v>
       </c>
       <c r="K28" s="7">
         <v>2260</v>
@@ -3923,7 +3959,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>141</v>
       </c>
@@ -3952,7 +3988,7 @@
         <v>3737.86</v>
       </c>
       <c r="J29" s="7">
-        <v>11700</v>
+        <v>1170</v>
       </c>
       <c r="K29" s="7">
         <v>2080</v>
@@ -3961,7 +3997,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>141</v>
       </c>
@@ -3990,7 +4026,7 @@
         <v>4106.8</v>
       </c>
       <c r="J30" s="7">
-        <v>14400</v>
+        <v>1440</v>
       </c>
       <c r="K30" s="7">
         <v>2040</v>
@@ -3999,7 +4035,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>141</v>
       </c>
@@ -4028,7 +4064,7 @@
         <v>4485.4399999999996</v>
       </c>
       <c r="J31" s="7">
-        <v>14100</v>
+        <v>1410</v>
       </c>
       <c r="K31" s="7">
         <v>2240</v>
@@ -4037,7 +4073,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>141</v>
       </c>
@@ -4066,7 +4102,7 @@
         <v>4169.8999999999996</v>
       </c>
       <c r="J32" s="7">
-        <v>11700</v>
+        <v>1170</v>
       </c>
       <c r="K32" s="7">
         <v>2180</v>
@@ -4075,7 +4111,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
@@ -4104,7 +4140,7 @@
         <v>4097.09</v>
       </c>
       <c r="J33" s="7">
-        <v>11700</v>
+        <v>1170</v>
       </c>
       <c r="K33" s="7">
         <v>2060</v>
@@ -4113,7 +4149,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>141</v>
       </c>
@@ -4142,7 +4178,7 @@
         <v>3810.68</v>
       </c>
       <c r="J34" s="7">
-        <v>11600</v>
+        <v>1160</v>
       </c>
       <c r="K34" s="7">
         <v>2020</v>
@@ -4151,7 +4187,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>141</v>
       </c>
@@ -4180,7 +4216,7 @@
         <v>3834.95</v>
       </c>
       <c r="J35" s="7">
-        <v>10700</v>
+        <v>1070</v>
       </c>
       <c r="K35" s="7">
         <v>1976</v>
@@ -4189,7 +4225,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>141</v>
       </c>
@@ -4218,7 +4254,7 @@
         <v>3436.89</v>
       </c>
       <c r="J36" s="7">
-        <v>9600</v>
+        <v>960</v>
       </c>
       <c r="K36" s="7">
         <v>1636</v>
@@ -4227,7 +4263,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>141</v>
       </c>
@@ -4256,7 +4292,7 @@
         <v>2912.62</v>
       </c>
       <c r="J37" s="7">
-        <v>10400</v>
+        <v>1040</v>
       </c>
       <c r="K37" s="7">
         <v>1588</v>
@@ -4265,7 +4301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>141</v>
       </c>
@@ -4294,7 +4330,7 @@
         <v>3087.38</v>
       </c>
       <c r="J38" s="7">
-        <v>10600</v>
+        <v>1060</v>
       </c>
       <c r="K38" s="7">
         <v>1558</v>
@@ -4303,7 +4339,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
@@ -4332,7 +4368,7 @@
         <v>2713.59</v>
       </c>
       <c r="J39" s="7">
-        <v>10800</v>
+        <v>1080</v>
       </c>
       <c r="K39" s="7">
         <v>1304</v>
@@ -4341,7 +4377,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>141</v>
       </c>
@@ -4370,7 +4406,7 @@
         <v>2597.09</v>
       </c>
       <c r="J40" s="7">
-        <v>10400</v>
+        <v>1040</v>
       </c>
       <c r="K40" s="7">
         <v>1440</v>
@@ -4379,7 +4415,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>141</v>
       </c>
@@ -4408,7 +4444,7 @@
         <v>2907.77</v>
       </c>
       <c r="J41" s="7">
-        <v>11200</v>
+        <v>1120</v>
       </c>
       <c r="K41" s="7">
         <v>1470</v>
@@ -4417,7 +4453,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>141</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>2873.79</v>
       </c>
       <c r="J42" s="7">
-        <v>9700</v>
+        <v>970</v>
       </c>
       <c r="K42" s="7">
         <v>1438</v>
@@ -4455,7 +4491,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
@@ -4484,7 +4520,7 @@
         <v>2771.84</v>
       </c>
       <c r="J43" s="7">
-        <v>9650</v>
+        <v>965</v>
       </c>
       <c r="K43" s="7">
         <v>1358</v>
@@ -4493,7 +4529,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>2820.39</v>
       </c>
       <c r="J44" s="7">
-        <v>10400</v>
+        <v>1040</v>
       </c>
       <c r="K44" s="7">
         <v>1424</v>
@@ -4531,7 +4567,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
@@ -4560,7 +4596,7 @@
         <v>2786.41</v>
       </c>
       <c r="J45" s="7">
-        <v>10600</v>
+        <v>1060</v>
       </c>
       <c r="K45" s="7">
         <v>1320</v>
@@ -4569,7 +4605,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
@@ -4598,7 +4634,7 @@
         <v>2742.72</v>
       </c>
       <c r="J46" s="7">
-        <v>10500</v>
+        <v>1050</v>
       </c>
       <c r="K46" s="7">
         <v>1300</v>
@@ -4607,7 +4643,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>141</v>
       </c>
@@ -4636,7 +4672,7 @@
         <v>2854.37</v>
       </c>
       <c r="J47" s="7">
-        <v>9930</v>
+        <v>993</v>
       </c>
       <c r="K47" s="7">
         <v>1284</v>
@@ -4645,7 +4681,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -4674,7 +4710,7 @@
         <v>3446.6</v>
       </c>
       <c r="J48" s="7">
-        <v>9800</v>
+        <v>980</v>
       </c>
       <c r="K48" s="7">
         <v>1510</v>
@@ -4683,7 +4719,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -4712,7 +4748,7 @@
         <v>3723.3</v>
       </c>
       <c r="J49" s="7">
-        <v>9610</v>
+        <v>961</v>
       </c>
       <c r="K49" s="7">
         <v>2180</v>
@@ -4721,7 +4757,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>141</v>
       </c>
@@ -4750,7 +4786,7 @@
         <v>4189.32</v>
       </c>
       <c r="J50" s="7">
-        <v>9480</v>
+        <v>948</v>
       </c>
       <c r="K50" s="7">
         <v>2180</v>
@@ -4759,7 +4795,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
@@ -4788,7 +4824,7 @@
         <v>3936.89</v>
       </c>
       <c r="J51" s="7">
-        <v>9600</v>
+        <v>960</v>
       </c>
       <c r="K51" s="7">
         <v>2040</v>
@@ -4797,7 +4833,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -4826,7 +4862,7 @@
         <v>4228.1499999999996</v>
       </c>
       <c r="J52" s="7">
-        <v>9770</v>
+        <v>977</v>
       </c>
       <c r="K52" s="7">
         <v>2140</v>
@@ -4835,7 +4871,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -4864,7 +4900,7 @@
         <v>4150.49</v>
       </c>
       <c r="J53" s="7">
-        <v>10200</v>
+        <v>1020</v>
       </c>
       <c r="K53" s="7">
         <v>2000</v>
@@ -4873,7 +4909,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
@@ -4902,7 +4938,7 @@
         <v>3854.37</v>
       </c>
       <c r="J54" s="7">
-        <v>9360</v>
+        <v>936</v>
       </c>
       <c r="K54" s="7">
         <v>1710</v>
@@ -4911,7 +4947,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>141</v>
       </c>
@@ -4940,7 +4976,7 @@
         <v>3626.21</v>
       </c>
       <c r="J55" s="7">
-        <v>7600</v>
+        <v>760</v>
       </c>
       <c r="K55" s="7">
         <v>1732</v>
@@ -4949,7 +4985,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
@@ -4978,7 +5014,7 @@
         <v>2961.16</v>
       </c>
       <c r="J56" s="7">
-        <v>6340</v>
+        <v>634</v>
       </c>
       <c r="K56" s="7">
         <v>1468</v>
@@ -4987,7 +5023,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
@@ -5016,7 +5052,7 @@
         <v>3058.25</v>
       </c>
       <c r="J57" s="7">
-        <v>7180</v>
+        <v>718</v>
       </c>
       <c r="K57" s="7">
         <v>1740</v>
@@ -5025,7 +5061,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
@@ -5054,7 +5090,7 @@
         <v>3490.29</v>
       </c>
       <c r="J58" s="7">
-        <v>6650</v>
+        <v>665</v>
       </c>
       <c r="K58" s="7">
         <v>1810</v>
@@ -5063,7 +5099,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
@@ -5092,7 +5128,7 @@
         <v>3388.35</v>
       </c>
       <c r="J59" s="7">
-        <v>6350</v>
+        <v>635</v>
       </c>
       <c r="K59" s="7">
         <v>1754</v>
@@ -5101,7 +5137,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -5130,7 +5166,7 @@
         <v>3250</v>
       </c>
       <c r="J60" s="7">
-        <v>6670</v>
+        <v>667</v>
       </c>
       <c r="K60" s="7">
         <v>1826</v>
@@ -5139,7 +5175,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
@@ -5168,7 +5204,7 @@
         <v>3290</v>
       </c>
       <c r="J61" s="7">
-        <v>6550</v>
+        <v>655</v>
       </c>
       <c r="K61" s="7">
         <v>1770</v>
@@ -5177,7 +5213,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>141</v>
       </c>
@@ -5206,7 +5242,7 @@
         <v>3395</v>
       </c>
       <c r="J62" s="7">
-        <v>6430</v>
+        <v>643</v>
       </c>
       <c r="K62" s="7">
         <v>1914</v>
@@ -5215,7 +5251,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
@@ -5244,7 +5280,7 @@
         <v>3315</v>
       </c>
       <c r="J63" s="7">
-        <v>7150</v>
+        <v>715</v>
       </c>
       <c r="K63" s="7">
         <v>1950</v>
@@ -5253,7 +5289,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>141</v>
       </c>
@@ -5282,7 +5318,7 @@
         <v>3240</v>
       </c>
       <c r="J64" s="7">
-        <v>6750</v>
+        <v>675</v>
       </c>
       <c r="K64" s="7">
         <v>1860</v>
@@ -5291,7 +5327,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
@@ -5320,7 +5356,7 @@
         <v>3260</v>
       </c>
       <c r="J65" s="7">
-        <v>6300</v>
+        <v>630</v>
       </c>
       <c r="K65" s="7">
         <v>1878</v>
@@ -5329,7 +5365,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>141</v>
       </c>
@@ -5358,7 +5394,7 @@
         <v>3185</v>
       </c>
       <c r="J66" s="7">
-        <v>5770</v>
+        <v>577</v>
       </c>
       <c r="K66" s="7">
         <v>1930</v>
@@ -5367,7 +5403,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
@@ -5396,7 +5432,7 @@
         <v>3085</v>
       </c>
       <c r="J67" s="7">
-        <v>5410</v>
+        <v>541</v>
       </c>
       <c r="K67" s="7">
         <v>1920</v>
@@ -5405,7 +5441,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
@@ -5434,7 +5470,7 @@
         <v>2945</v>
       </c>
       <c r="J68" s="7">
-        <v>5350</v>
+        <v>535</v>
       </c>
       <c r="K68" s="7">
         <v>1860</v>
@@ -5443,7 +5479,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>141</v>
       </c>
@@ -5472,7 +5508,7 @@
         <v>2910</v>
       </c>
       <c r="J69" s="7">
-        <v>5350</v>
+        <v>535</v>
       </c>
       <c r="K69" s="7">
         <v>1822</v>
@@ -5481,7 +5517,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>141</v>
       </c>
@@ -5510,7 +5546,7 @@
         <v>3150</v>
       </c>
       <c r="J70" s="7">
-        <v>5050</v>
+        <v>505</v>
       </c>
       <c r="K70" s="7">
         <v>1600</v>
@@ -5519,7 +5555,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -5548,7 +5584,7 @@
         <v>2890</v>
       </c>
       <c r="J71" s="7">
-        <v>5020</v>
+        <v>502</v>
       </c>
       <c r="K71" s="7">
         <v>1506</v>
@@ -5557,7 +5593,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
@@ -5586,7 +5622,7 @@
         <v>2750</v>
       </c>
       <c r="J72" s="7">
-        <v>5150</v>
+        <v>515</v>
       </c>
       <c r="K72" s="7">
         <v>1432</v>
@@ -5595,7 +5631,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
@@ -5624,7 +5660,7 @@
         <v>2770</v>
       </c>
       <c r="J73" s="7">
-        <v>5390</v>
+        <v>539</v>
       </c>
       <c r="K73" s="7">
         <v>1504</v>
@@ -5633,7 +5669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
@@ -5662,7 +5698,7 @@
         <v>2650</v>
       </c>
       <c r="J74" s="7">
-        <v>5090</v>
+        <v>509</v>
       </c>
       <c r="K74" s="7">
         <v>1336</v>
@@ -5671,7 +5707,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>141</v>
       </c>
@@ -5700,7 +5736,7 @@
         <v>2645</v>
       </c>
       <c r="J75" s="7">
-        <v>4880</v>
+        <v>488</v>
       </c>
       <c r="K75" s="7">
         <v>1252</v>
@@ -5709,7 +5745,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>141</v>
       </c>
@@ -5738,7 +5774,7 @@
         <v>2885</v>
       </c>
       <c r="J76" s="7">
-        <v>5750</v>
+        <v>575</v>
       </c>
       <c r="K76" s="7">
         <v>1440</v>
@@ -5747,7 +5783,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
@@ -5776,7 +5812,7 @@
         <v>2960</v>
       </c>
       <c r="J77" s="7">
-        <v>6130</v>
+        <v>613</v>
       </c>
       <c r="K77" s="7">
         <v>1594</v>
@@ -5785,7 +5821,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
@@ -5814,7 +5850,7 @@
         <v>3055</v>
       </c>
       <c r="J78" s="7">
-        <v>7200</v>
+        <v>720</v>
       </c>
       <c r="K78" s="7">
         <v>1612</v>
@@ -5823,7 +5859,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>141</v>
       </c>
@@ -5852,7 +5888,7 @@
         <v>2895</v>
       </c>
       <c r="J79" s="7">
-        <v>7520</v>
+        <v>752</v>
       </c>
       <c r="K79" s="7">
         <v>1614</v>
@@ -5861,7 +5897,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
@@ -5890,7 +5926,7 @@
         <v>3015</v>
       </c>
       <c r="J80" s="7">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="K80" s="7">
         <v>1778</v>
@@ -5899,7 +5935,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -5928,7 +5964,7 @@
         <v>3230</v>
       </c>
       <c r="J81" s="7">
-        <v>7850</v>
+        <v>785</v>
       </c>
       <c r="K81" s="7">
         <v>1856</v>
@@ -5937,7 +5973,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
@@ -5966,7 +6002,7 @@
         <v>3225</v>
       </c>
       <c r="J82" s="7">
-        <v>7900</v>
+        <v>790</v>
       </c>
       <c r="K82" s="7">
         <v>2020</v>
@@ -5975,7 +6011,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>141</v>
       </c>
@@ -6004,7 +6040,7 @@
         <v>3335</v>
       </c>
       <c r="J83" s="7">
-        <v>7100</v>
+        <v>710</v>
       </c>
       <c r="K83" s="7">
         <v>1926</v>
@@ -6013,7 +6049,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>141</v>
       </c>
@@ -6042,7 +6078,7 @@
         <v>3475</v>
       </c>
       <c r="J84" s="7">
-        <v>6770</v>
+        <v>677</v>
       </c>
       <c r="K84" s="7">
         <v>2060</v>
@@ -6051,7 +6087,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>141</v>
       </c>
@@ -6080,7 +6116,7 @@
         <v>3620</v>
       </c>
       <c r="J85" s="7">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="K85" s="7">
         <v>2120</v>
@@ -6089,7 +6125,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>141</v>
       </c>
@@ -6118,7 +6154,7 @@
         <v>3505</v>
       </c>
       <c r="J86" s="7">
-        <v>7930</v>
+        <v>793</v>
       </c>
       <c r="K86" s="7">
         <v>2020</v>
@@ -6127,7 +6163,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>141</v>
       </c>
@@ -6156,7 +6192,7 @@
         <v>3595</v>
       </c>
       <c r="J87" s="7">
-        <v>8170</v>
+        <v>817</v>
       </c>
       <c r="K87" s="7">
         <v>1898</v>
@@ -6165,7 +6201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>141</v>
       </c>
@@ -6194,7 +6230,7 @@
         <v>3465</v>
       </c>
       <c r="J88" s="7">
-        <v>7440</v>
+        <v>744</v>
       </c>
       <c r="K88" s="7">
         <v>1822</v>
@@ -6203,7 +6239,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -6232,7 +6268,7 @@
         <v>3280</v>
       </c>
       <c r="J89" s="7">
-        <v>6510</v>
+        <v>651</v>
       </c>
       <c r="K89" s="7">
         <v>1786</v>
@@ -6241,7 +6277,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>141</v>
       </c>
@@ -6270,7 +6306,7 @@
         <v>3430</v>
       </c>
       <c r="J90" s="7">
-        <v>7200</v>
+        <v>720</v>
       </c>
       <c r="K90" s="7">
         <v>1882</v>
@@ -6279,7 +6315,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>141</v>
       </c>
@@ -6308,7 +6344,7 @@
         <v>3205</v>
       </c>
       <c r="J91" s="7">
-        <v>7200</v>
+        <v>720</v>
       </c>
       <c r="K91" s="7">
         <v>1786</v>
@@ -6317,7 +6353,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>141</v>
       </c>
@@ -6346,7 +6382,7 @@
         <v>3165</v>
       </c>
       <c r="J92" s="7">
-        <v>8010</v>
+        <v>801</v>
       </c>
       <c r="K92" s="7">
         <v>1670</v>
@@ -6355,7 +6391,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>141</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>2835</v>
       </c>
       <c r="J93" s="7">
-        <v>8250</v>
+        <v>825</v>
       </c>
       <c r="K93" s="7">
         <v>1562</v>
@@ -6393,7 +6429,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>141</v>
       </c>
@@ -6422,7 +6458,7 @@
         <v>2670</v>
       </c>
       <c r="J94" s="7">
-        <v>7940</v>
+        <v>794</v>
       </c>
       <c r="K94" s="7">
         <v>1502</v>
@@ -6431,7 +6467,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>141</v>
       </c>
@@ -6460,7 +6496,7 @@
         <v>2700</v>
       </c>
       <c r="J95" s="7">
-        <v>8500</v>
+        <v>850</v>
       </c>
       <c r="K95" s="7">
         <v>1670</v>
@@ -6469,7 +6505,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>141</v>
       </c>
@@ -6498,7 +6534,7 @@
         <v>2740</v>
       </c>
       <c r="J96" s="7">
-        <v>8850</v>
+        <v>885</v>
       </c>
       <c r="K96" s="7">
         <v>1494</v>
@@ -6507,7 +6543,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>141</v>
       </c>
@@ -6536,7 +6572,7 @@
         <v>2675</v>
       </c>
       <c r="J97" s="7">
-        <v>9210</v>
+        <v>921</v>
       </c>
       <c r="K97" s="7">
         <v>1700</v>
@@ -6545,7 +6581,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>141</v>
       </c>
@@ -6574,7 +6610,7 @@
         <v>2610</v>
       </c>
       <c r="J98" s="7">
-        <v>9100</v>
+        <v>910</v>
       </c>
       <c r="K98" s="7">
         <v>1622</v>
@@ -6583,7 +6619,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>141</v>
       </c>
@@ -6612,7 +6648,7 @@
         <v>2645</v>
       </c>
       <c r="J99" s="7">
-        <v>9580</v>
+        <v>958</v>
       </c>
       <c r="K99" s="7">
         <v>1620</v>
@@ -6621,7 +6657,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>141</v>
       </c>
@@ -6650,7 +6686,7 @@
         <v>2510</v>
       </c>
       <c r="J100" s="7">
-        <v>11900</v>
+        <v>1190</v>
       </c>
       <c r="K100" s="7">
         <v>1366</v>
@@ -6659,7 +6695,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>141</v>
       </c>
@@ -6688,7 +6724,7 @@
         <v>2445</v>
       </c>
       <c r="J101" s="7">
-        <v>9900</v>
+        <v>990</v>
       </c>
       <c r="K101" s="7">
         <v>1436</v>
@@ -6697,7 +6733,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>141</v>
       </c>
@@ -6726,7 +6762,7 @@
         <v>2485</v>
       </c>
       <c r="J102" s="7">
-        <v>11500</v>
+        <v>1150</v>
       </c>
       <c r="K102" s="7">
         <v>1292</v>
@@ -6735,7 +6771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>141</v>
       </c>
@@ -6764,7 +6800,7 @@
         <v>2300</v>
       </c>
       <c r="J103" s="7">
-        <v>10400</v>
+        <v>1040</v>
       </c>
       <c r="K103" s="7">
         <v>1214</v>
@@ -6773,7 +6809,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>141</v>
       </c>
@@ -6802,7 +6838,7 @@
         <v>2225</v>
       </c>
       <c r="J104" s="7">
-        <v>13200</v>
+        <v>1320</v>
       </c>
       <c r="K104" s="7">
         <v>1016</v>
@@ -6811,7 +6847,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>141</v>
       </c>
@@ -6840,7 +6876,7 @@
         <v>2040</v>
       </c>
       <c r="J105" s="7">
-        <v>12900</v>
+        <v>1290</v>
       </c>
       <c r="K105" s="7">
         <v>860</v>
@@ -6849,7 +6885,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>141</v>
       </c>
@@ -6878,7 +6914,7 @@
         <v>2260</v>
       </c>
       <c r="J106" s="7">
-        <v>13400</v>
+        <v>1340</v>
       </c>
       <c r="K106" s="7">
         <v>988</v>
@@ -6887,7 +6923,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>141</v>
       </c>
@@ -6916,7 +6952,7 @@
         <v>2230</v>
       </c>
       <c r="J107" s="7">
-        <v>11600</v>
+        <v>1160</v>
       </c>
       <c r="K107" s="7">
         <v>1098</v>
@@ -6925,7 +6961,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>141</v>
       </c>
@@ -6954,7 +6990,7 @@
         <v>2155</v>
       </c>
       <c r="J108" s="7">
-        <v>11600</v>
+        <v>1160</v>
       </c>
       <c r="K108" s="7">
         <v>1040</v>
@@ -6963,7 +6999,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>141</v>
       </c>
@@ -6992,7 +7028,7 @@
         <v>2025</v>
       </c>
       <c r="J109" s="7">
-        <v>11960</v>
+        <v>1196</v>
       </c>
       <c r="K109" s="7">
         <v>1096</v>
@@ -7001,7 +7037,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>141</v>
       </c>
@@ -7030,7 +7066,7 @@
         <v>1965</v>
       </c>
       <c r="J110" s="7">
-        <v>12920</v>
+        <v>1292</v>
       </c>
       <c r="K110" s="7">
         <v>1176</v>
@@ -7039,7 +7075,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -7068,7 +7104,7 @@
         <v>1835</v>
       </c>
       <c r="J111" s="7">
-        <v>12970</v>
+        <v>1297</v>
       </c>
       <c r="K111" s="7">
         <v>1126</v>
@@ -7077,7 +7113,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>141</v>
       </c>
@@ -7106,7 +7142,7 @@
         <v>1820</v>
       </c>
       <c r="J112" s="7">
-        <v>13510</v>
+        <v>1351</v>
       </c>
       <c r="K112" s="7">
         <v>1174</v>
@@ -7115,7 +7151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>141</v>
       </c>
@@ -7144,7 +7180,7 @@
         <v>1630</v>
       </c>
       <c r="J113" s="7">
-        <v>13070</v>
+        <v>1307</v>
       </c>
       <c r="K113" s="7">
         <v>892</v>
@@ -7153,7 +7189,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>141</v>
       </c>
@@ -7182,7 +7218,7 @@
         <v>1625</v>
       </c>
       <c r="J114" s="7">
-        <v>12850</v>
+        <v>1285</v>
       </c>
       <c r="K114" s="7">
         <v>862</v>
@@ -7191,7 +7227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>141</v>
       </c>
@@ -7220,7 +7256,7 @@
         <v>1820</v>
       </c>
       <c r="J115" s="7">
-        <v>9900</v>
+        <v>990</v>
       </c>
       <c r="K115" s="7">
         <v>778</v>
@@ -7229,7 +7265,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>141</v>
       </c>
@@ -7258,7 +7294,7 @@
         <v>1775</v>
       </c>
       <c r="J116" s="7">
-        <v>11660</v>
+        <v>1166</v>
       </c>
       <c r="K116" s="7">
         <v>888</v>
@@ -7267,7 +7303,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>141</v>
       </c>
@@ -7296,7 +7332,7 @@
         <v>1650</v>
       </c>
       <c r="J117" s="7">
-        <v>10900</v>
+        <v>1090</v>
       </c>
       <c r="K117" s="7">
         <v>734</v>
@@ -7305,7 +7341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>141</v>
       </c>
@@ -7334,7 +7370,7 @@
         <v>1740</v>
       </c>
       <c r="J118" s="7">
-        <v>10800</v>
+        <v>1080</v>
       </c>
       <c r="K118" s="7">
         <v>770</v>
@@ -7343,7 +7379,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>141</v>
       </c>
@@ -7372,7 +7408,7 @@
         <v>1705</v>
       </c>
       <c r="J119" s="7">
-        <v>10180</v>
+        <v>1018</v>
       </c>
       <c r="K119" s="7">
         <v>866</v>
@@ -7381,7 +7417,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
@@ -7410,7 +7446,7 @@
         <v>1745</v>
       </c>
       <c r="J120" s="7">
-        <v>10250</v>
+        <v>1025</v>
       </c>
       <c r="K120" s="7">
         <v>1010</v>
@@ -7419,7 +7455,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>141</v>
       </c>
@@ -7448,7 +7484,7 @@
         <v>1825</v>
       </c>
       <c r="J121" s="7">
-        <v>11240</v>
+        <v>1124</v>
       </c>
       <c r="K121" s="7">
         <v>1084</v>
@@ -7457,7 +7493,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>141</v>
       </c>
@@ -7486,7 +7522,7 @@
         <v>1825</v>
       </c>
       <c r="J122" s="7">
-        <v>14400</v>
+        <v>1440</v>
       </c>
       <c r="K122" s="7">
         <v>1074</v>
@@ -7495,7 +7531,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>141</v>
       </c>
@@ -7524,7 +7560,7 @@
         <v>1715</v>
       </c>
       <c r="J123" s="7">
-        <v>16850</v>
+        <v>1685</v>
       </c>
       <c r="K123" s="7">
         <v>1000</v>
@@ -7533,7 +7569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>141</v>
       </c>
@@ -7562,7 +7598,7 @@
         <v>1720</v>
       </c>
       <c r="J124" s="7">
-        <v>16770</v>
+        <v>1677</v>
       </c>
       <c r="K124" s="7">
         <v>1076</v>
@@ -7571,7 +7607,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>141</v>
       </c>
@@ -7600,7 +7636,7 @@
         <v>1695</v>
       </c>
       <c r="J125" s="7">
-        <v>18550</v>
+        <v>1855</v>
       </c>
       <c r="K125" s="7">
         <v>852</v>
@@ -7609,7 +7645,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>141</v>
       </c>
@@ -7638,7 +7674,7 @@
         <v>1720</v>
       </c>
       <c r="J126" s="7">
-        <v>16960</v>
+        <v>1696</v>
       </c>
       <c r="K126" s="7">
         <v>1054</v>
@@ -7647,7 +7683,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>141</v>
       </c>
@@ -7676,7 +7712,7 @@
         <v>1635</v>
       </c>
       <c r="J127" s="7">
-        <v>16560</v>
+        <v>1656</v>
       </c>
       <c r="K127" s="7">
         <v>630</v>
@@ -7685,7 +7721,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>141</v>
       </c>
@@ -7714,7 +7750,7 @@
         <v>1535</v>
       </c>
       <c r="J128" s="7">
-        <v>16800</v>
+        <v>1680</v>
       </c>
       <c r="K128" s="7">
         <v>466</v>
@@ -7723,7 +7759,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>141</v>
       </c>
@@ -7752,7 +7788,7 @@
         <v>1500</v>
       </c>
       <c r="J129" s="7">
-        <v>16830</v>
+        <v>1683</v>
       </c>
       <c r="K129" s="7">
         <v>456</v>
@@ -7761,7 +7797,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>141</v>
       </c>
@@ -7790,7 +7826,7 @@
         <v>1570</v>
       </c>
       <c r="J130" s="7">
-        <v>19810</v>
+        <v>1981</v>
       </c>
       <c r="K130" s="7">
         <v>548</v>
@@ -7799,7 +7835,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>141</v>
       </c>
@@ -7828,7 +7864,7 @@
         <v>1520</v>
       </c>
       <c r="J131" s="7">
-        <v>24700</v>
+        <v>2470</v>
       </c>
       <c r="K131" s="7">
         <v>520</v>
@@ -7837,7 +7873,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>141</v>
       </c>
@@ -7866,7 +7902,7 @@
         <v>1465</v>
       </c>
       <c r="J132" s="7">
-        <v>18400</v>
+        <v>1840</v>
       </c>
       <c r="K132" s="7">
         <v>614</v>
@@ -7875,7 +7911,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
@@ -7904,7 +7940,7 @@
         <v>1430</v>
       </c>
       <c r="J133" s="7">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="K133" s="7">
         <v>662</v>
@@ -7913,7 +7949,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>141</v>
       </c>
@@ -7942,7 +7978,7 @@
         <v>1435</v>
       </c>
       <c r="J134" s="7">
-        <v>16110</v>
+        <v>1611</v>
       </c>
       <c r="K134" s="7">
         <v>910</v>
@@ -7951,7 +7987,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>141</v>
       </c>
@@ -7980,7 +8016,7 @@
         <v>1515</v>
       </c>
       <c r="J135" s="7">
-        <v>18600</v>
+        <v>1860</v>
       </c>
       <c r="K135" s="7">
         <v>1000</v>
@@ -7989,7 +8025,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -8018,7 +8054,7 @@
         <v>1505</v>
       </c>
       <c r="J136" s="7">
-        <v>17700</v>
+        <v>1770</v>
       </c>
       <c r="K136" s="7">
         <v>842</v>
@@ -8027,7 +8063,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>141</v>
       </c>
@@ -8056,7 +8092,7 @@
         <v>1590</v>
       </c>
       <c r="J137" s="7">
-        <v>18410</v>
+        <v>1841</v>
       </c>
       <c r="K137" s="7">
         <v>1170</v>
@@ -8065,7 +8101,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>141</v>
       </c>
@@ -8094,7 +8130,7 @@
         <v>1625</v>
       </c>
       <c r="J138" s="7">
-        <v>19760</v>
+        <v>1976</v>
       </c>
       <c r="K138" s="7">
         <v>1194</v>
@@ -8103,7 +8139,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
@@ -8132,7 +8168,7 @@
         <v>1610</v>
       </c>
       <c r="J139" s="7">
-        <v>18170</v>
+        <v>1817</v>
       </c>
       <c r="K139" s="7">
         <v>1126</v>
@@ -8141,7 +8177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
@@ -8170,7 +8206,7 @@
         <v>1610</v>
       </c>
       <c r="J140" s="7">
-        <v>16620</v>
+        <v>1662</v>
       </c>
       <c r="K140" s="7">
         <v>1108</v>
@@ -8179,7 +8215,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -8208,7 +8244,7 @@
         <v>1680</v>
       </c>
       <c r="J141" s="7">
-        <v>18250</v>
+        <v>1825</v>
       </c>
       <c r="K141" s="7">
         <v>1196</v>
@@ -8217,7 +8253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -8246,7 +8282,7 @@
         <v>1700</v>
       </c>
       <c r="J142" s="7">
-        <v>18770</v>
+        <v>1877</v>
       </c>
       <c r="K142" s="7">
         <v>962</v>
@@ -8255,7 +8291,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>1940</v>
       </c>
       <c r="J143" s="7">
-        <v>19100</v>
+        <v>1910</v>
       </c>
       <c r="K143" s="7">
         <v>916</v>
@@ -8293,7 +8329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>141</v>
       </c>
@@ -8322,7 +8358,7 @@
         <v>1870</v>
       </c>
       <c r="J144" s="7">
-        <v>20460</v>
+        <v>2046</v>
       </c>
       <c r="K144" s="7">
         <v>958</v>
@@ -8331,7 +8367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>141</v>
       </c>
@@ -8360,7 +8396,7 @@
         <v>1905</v>
       </c>
       <c r="J145" s="7">
-        <v>19800</v>
+        <v>1980</v>
       </c>
       <c r="K145" s="7">
         <v>1004</v>
@@ -8369,7 +8405,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>141</v>
       </c>
@@ -8398,7 +8434,7 @@
         <v>1840</v>
       </c>
       <c r="J146" s="7">
-        <v>22810</v>
+        <v>2281</v>
       </c>
       <c r="K146" s="7">
         <v>1156</v>
@@ -8407,7 +8443,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>141</v>
       </c>
@@ -8436,7 +8472,7 @@
         <v>1995</v>
       </c>
       <c r="J147" s="7">
-        <v>23000</v>
+        <v>2300</v>
       </c>
       <c r="K147" s="7">
         <v>1166</v>
@@ -8445,7 +8481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
@@ -8474,7 +8510,7 @@
         <v>1925</v>
       </c>
       <c r="J148" s="7">
-        <v>22100</v>
+        <v>2210</v>
       </c>
       <c r="K148" s="7">
         <v>934</v>
@@ -8483,7 +8519,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>141</v>
       </c>
@@ -8512,7 +8548,7 @@
         <v>1945</v>
       </c>
       <c r="J149" s="7">
-        <v>18830</v>
+        <v>1883</v>
       </c>
       <c r="K149" s="7">
         <v>866</v>
@@ -8521,7 +8557,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>141</v>
       </c>
@@ -8550,7 +8586,7 @@
         <v>1895</v>
       </c>
       <c r="J150" s="7">
-        <v>17100</v>
+        <v>1710</v>
       </c>
       <c r="K150" s="7">
         <v>700</v>
@@ -8559,7 +8595,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>141</v>
       </c>
@@ -8588,7 +8624,7 @@
         <v>1830</v>
       </c>
       <c r="J151" s="7">
-        <v>18990</v>
+        <v>1899</v>
       </c>
       <c r="K151" s="7">
         <v>800</v>
@@ -8597,7 +8633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>141</v>
       </c>
@@ -8626,7 +8662,7 @@
         <v>1760</v>
       </c>
       <c r="J152" s="7">
-        <v>21180</v>
+        <v>2118</v>
       </c>
       <c r="K152" s="7">
         <v>858</v>
@@ -8635,7 +8671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>141</v>
       </c>
@@ -8664,7 +8700,7 @@
         <v>1725</v>
       </c>
       <c r="J153" s="7">
-        <v>22700</v>
+        <v>2270</v>
       </c>
       <c r="K153" s="7">
         <v>874</v>
@@ -8673,7 +8709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>141</v>
       </c>
@@ -8702,7 +8738,7 @@
         <v>1555</v>
       </c>
       <c r="J154" s="7">
-        <v>19140</v>
+        <v>1914</v>
       </c>
       <c r="K154" s="7">
         <v>974</v>
@@ -8711,7 +8747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>141</v>
       </c>
@@ -8740,7 +8776,7 @@
         <v>1655</v>
       </c>
       <c r="J155" s="7">
-        <v>19460</v>
+        <v>1946</v>
       </c>
       <c r="K155" s="7">
         <v>1026</v>
@@ -8749,7 +8785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>141</v>
       </c>
@@ -8778,7 +8814,7 @@
         <v>1680</v>
       </c>
       <c r="J156" s="7">
-        <v>19600</v>
+        <v>1960</v>
       </c>
       <c r="K156" s="7">
         <v>1028</v>
@@ -8787,7 +8823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>141</v>
       </c>
@@ -8816,7 +8852,7 @@
         <v>1715</v>
       </c>
       <c r="J157" s="7">
-        <v>17940</v>
+        <v>1794</v>
       </c>
       <c r="K157" s="7">
         <v>1122</v>
@@ -8825,7 +8861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>141</v>
       </c>
@@ -8854,7 +8890,7 @@
         <v>1785</v>
       </c>
       <c r="J158" s="7">
-        <v>17370</v>
+        <v>1737</v>
       </c>
       <c r="K158" s="7">
         <v>1170</v>
@@ -8863,7 +8899,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>141</v>
       </c>
@@ -8892,7 +8928,7 @@
         <v>1675</v>
       </c>
       <c r="J159" s="7">
-        <v>17570</v>
+        <v>1757</v>
       </c>
       <c r="K159" s="7">
         <v>1084</v>
@@ -8901,7 +8937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>141</v>
       </c>
@@ -8930,7 +8966,7 @@
         <v>1605</v>
       </c>
       <c r="J160" s="7">
-        <v>14900</v>
+        <v>1490</v>
       </c>
       <c r="K160" s="7">
         <v>1032</v>
@@ -8939,7 +8975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>141</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>1595</v>
       </c>
       <c r="J161" s="7">
-        <v>14260</v>
+        <v>1426</v>
       </c>
       <c r="K161" s="7">
         <v>984</v>
@@ -8977,7 +9013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>141</v>
       </c>
@@ -9006,7 +9042,7 @@
         <v>1585</v>
       </c>
       <c r="J162" s="7">
-        <v>14250</v>
+        <v>1425</v>
       </c>
       <c r="K162" s="7">
         <v>1004</v>
@@ -9015,7 +9051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>141</v>
       </c>
@@ -9044,7 +9080,7 @@
         <v>1515</v>
       </c>
       <c r="J163" s="7">
-        <v>11770</v>
+        <v>1177</v>
       </c>
       <c r="K163" s="7">
         <v>818</v>
@@ -9053,7 +9089,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>141</v>
       </c>
@@ -9082,7 +9118,7 @@
         <v>1610</v>
       </c>
       <c r="J164" s="7">
-        <v>13000</v>
+        <v>1300</v>
       </c>
       <c r="K164" s="7">
         <v>818</v>
@@ -9091,7 +9127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>141</v>
       </c>
@@ -9120,7 +9156,7 @@
         <v>1575</v>
       </c>
       <c r="J165" s="7">
-        <v>11050</v>
+        <v>1105</v>
       </c>
       <c r="K165" s="7">
         <v>990</v>
@@ -9129,7 +9165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>141</v>
       </c>
@@ -9158,7 +9194,7 @@
         <v>1540</v>
       </c>
       <c r="J166" s="7">
-        <v>9390</v>
+        <v>939</v>
       </c>
       <c r="K166" s="7">
         <v>910</v>
@@ -9167,7 +9203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>141</v>
       </c>
@@ -9196,7 +9232,7 @@
         <v>1615</v>
       </c>
       <c r="J167" s="7">
-        <v>9370</v>
+        <v>937</v>
       </c>
       <c r="K167" s="7">
         <v>878</v>
@@ -9205,7 +9241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>141</v>
       </c>
@@ -9234,7 +9270,7 @@
         <v>1640</v>
       </c>
       <c r="J168" s="7">
-        <v>9660</v>
+        <v>966</v>
       </c>
       <c r="K168" s="7">
         <v>744</v>
@@ -9243,7 +9279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>141</v>
       </c>
@@ -9272,7 +9308,7 @@
         <v>1670</v>
       </c>
       <c r="J169" s="7">
-        <v>9190</v>
+        <v>919</v>
       </c>
       <c r="K169" s="7">
         <v>718</v>
@@ -9281,7 +9317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>141</v>
       </c>
@@ -9310,7 +9346,7 @@
         <v>1695</v>
       </c>
       <c r="J170" s="7">
-        <v>8810</v>
+        <v>881</v>
       </c>
       <c r="K170" s="7">
         <v>898</v>
@@ -9319,7 +9355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>141</v>
       </c>
@@ -9348,7 +9384,7 @@
         <v>1705</v>
       </c>
       <c r="J171" s="7">
-        <v>8630</v>
+        <v>863</v>
       </c>
       <c r="K171" s="7">
         <v>920</v>
@@ -9357,7 +9393,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>141</v>
       </c>
@@ -9386,7 +9422,7 @@
         <v>1680</v>
       </c>
       <c r="J172" s="7">
-        <v>9620</v>
+        <v>962</v>
       </c>
       <c r="K172" s="7">
         <v>904</v>
@@ -9395,7 +9431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>141</v>
       </c>
@@ -9424,7 +9460,7 @@
         <v>1705</v>
       </c>
       <c r="J173" s="7">
-        <v>9670</v>
+        <v>967</v>
       </c>
       <c r="K173" s="7">
         <v>1062</v>
@@ -9433,7 +9469,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>141</v>
       </c>
@@ -9462,7 +9498,7 @@
         <v>1785</v>
       </c>
       <c r="J174" s="7">
-        <v>9440</v>
+        <v>944</v>
       </c>
       <c r="K174" s="7">
         <v>1140</v>
@@ -9471,7 +9507,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>141</v>
       </c>
@@ -9500,7 +9536,7 @@
         <v>1925</v>
       </c>
       <c r="J175" s="7">
-        <v>8350</v>
+        <v>835</v>
       </c>
       <c r="K175" s="7">
         <v>1508</v>
@@ -9509,7 +9545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>141</v>
       </c>
@@ -9538,7 +9574,7 @@
         <v>1865</v>
       </c>
       <c r="J176" s="7">
-        <v>9260</v>
+        <v>926</v>
       </c>
       <c r="K176" s="7">
         <v>1384</v>
@@ -9547,7 +9583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>141</v>
       </c>
@@ -9576,7 +9612,7 @@
         <v>1915</v>
       </c>
       <c r="J177" s="7">
-        <v>10060</v>
+        <v>1006</v>
       </c>
       <c r="K177" s="7">
         <v>1590</v>
@@ -9585,7 +9621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>141</v>
       </c>
@@ -9614,7 +9650,7 @@
         <v>1960</v>
       </c>
       <c r="J178" s="7">
-        <v>10270</v>
+        <v>1027</v>
       </c>
       <c r="K178" s="7">
         <v>1426</v>
@@ -9623,7 +9659,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>141</v>
       </c>
@@ -9652,7 +9688,7 @@
         <v>2055</v>
       </c>
       <c r="J179" s="7">
-        <v>10630</v>
+        <v>1063</v>
       </c>
       <c r="K179" s="7">
         <v>1352</v>
@@ -9661,7 +9697,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>141</v>
       </c>
@@ -9690,7 +9726,7 @@
         <v>2310</v>
       </c>
       <c r="J180" s="7">
-        <v>10640</v>
+        <v>1064</v>
       </c>
       <c r="K180" s="7">
         <v>1508</v>
@@ -9699,7 +9735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>141</v>
       </c>
@@ -9728,7 +9764,7 @@
         <v>2365</v>
       </c>
       <c r="J181" s="7">
-        <v>10460</v>
+        <v>1046</v>
       </c>
       <c r="K181" s="7">
         <v>1342</v>
@@ -9737,7 +9773,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>141</v>
       </c>
@@ -9766,7 +9802,7 @@
         <v>2375</v>
       </c>
       <c r="J182" s="7">
-        <v>11330</v>
+        <v>1133</v>
       </c>
       <c r="K182" s="7">
         <v>1326</v>
@@ -9775,7 +9811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>141</v>
       </c>
@@ -9804,7 +9840,7 @@
         <v>2390</v>
       </c>
       <c r="J183" s="7">
-        <v>12700</v>
+        <v>1270</v>
       </c>
       <c r="K183" s="7">
         <v>1424</v>
@@ -9813,7 +9849,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>141</v>
       </c>
@@ -9842,7 +9878,7 @@
         <v>2200</v>
       </c>
       <c r="J184" s="7">
-        <v>12490</v>
+        <v>1249</v>
       </c>
       <c r="K184" s="7">
         <v>1330</v>
@@ -9851,7 +9887,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>141</v>
       </c>
@@ -9880,7 +9916,7 @@
         <v>2060</v>
       </c>
       <c r="J185" s="7">
-        <v>11740</v>
+        <v>1174</v>
       </c>
       <c r="K185" s="7">
         <v>1434</v>
@@ -9889,7 +9925,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>141</v>
       </c>
@@ -9918,7 +9954,7 @@
         <v>2015</v>
       </c>
       <c r="J186" s="7">
-        <v>13320</v>
+        <v>1332</v>
       </c>
       <c r="K186" s="7">
         <v>1528</v>
@@ -9927,7 +9963,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>141</v>
       </c>
@@ -9956,7 +9992,7 @@
         <v>1885</v>
       </c>
       <c r="J187" s="7">
-        <v>11890</v>
+        <v>1189</v>
       </c>
       <c r="K187" s="7">
         <v>1430</v>
@@ -9965,7 +10001,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>141</v>
       </c>
@@ -9994,7 +10030,7 @@
         <v>1915</v>
       </c>
       <c r="J188" s="7">
-        <v>12450</v>
+        <v>1245</v>
       </c>
       <c r="K188" s="7">
         <v>1544</v>
@@ -10003,7 +10039,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>141</v>
       </c>
@@ -10032,7 +10068,7 @@
         <v>1950</v>
       </c>
       <c r="J189" s="7">
-        <v>12780</v>
+        <v>1278</v>
       </c>
       <c r="K189" s="7">
         <v>1464</v>
@@ -10041,7 +10077,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>141</v>
       </c>
@@ -10070,7 +10106,7 @@
         <v>2040</v>
       </c>
       <c r="J190" s="7">
-        <v>11670</v>
+        <v>1167</v>
       </c>
       <c r="K190" s="7">
         <v>1424</v>
@@ -10079,7 +10115,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>141</v>
       </c>
@@ -10108,7 +10144,7 @@
         <v>2095</v>
       </c>
       <c r="J191" s="7">
-        <v>11650</v>
+        <v>1165</v>
       </c>
       <c r="K191" s="7">
         <v>1594</v>
@@ -10117,7 +10153,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>141</v>
       </c>
@@ -10146,7 +10182,7 @@
         <v>2165</v>
       </c>
       <c r="J192" s="7">
-        <v>11650</v>
+        <v>1165</v>
       </c>
       <c r="K192" s="7">
         <v>1614</v>
@@ -10155,7 +10191,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>141</v>
       </c>
@@ -10184,7 +10220,7 @@
         <v>1965</v>
       </c>
       <c r="J193" s="7">
-        <v>11750</v>
+        <v>1175</v>
       </c>
       <c r="K193" s="7">
         <v>1474</v>
@@ -10193,7 +10229,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>141</v>
       </c>
@@ -10222,7 +10258,7 @@
         <v>2010</v>
       </c>
       <c r="J194" s="7">
-        <v>11580</v>
+        <v>1158</v>
       </c>
       <c r="K194" s="7">
         <v>1398</v>
@@ -10231,7 +10267,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>141</v>
       </c>
@@ -10260,7 +10296,7 @@
         <v>2010</v>
       </c>
       <c r="J195" s="7">
-        <v>11550</v>
+        <v>1155</v>
       </c>
       <c r="K195" s="7">
         <v>1522</v>
@@ -10269,7 +10305,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>141</v>
       </c>
@@ -10298,7 +10334,7 @@
         <v>2090</v>
       </c>
       <c r="J196" s="7">
-        <v>11790</v>
+        <v>1179</v>
       </c>
       <c r="K196" s="7">
         <v>1554</v>
@@ -10307,7 +10343,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>141</v>
       </c>
@@ -10336,7 +10372,7 @@
         <v>2120</v>
       </c>
       <c r="J197" s="7">
-        <v>11600</v>
+        <v>1160</v>
       </c>
       <c r="K197" s="7">
         <v>1672</v>
@@ -10345,7 +10381,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>141</v>
       </c>
@@ -10374,7 +10410,7 @@
         <v>2265</v>
       </c>
       <c r="J198" s="7">
-        <v>13060</v>
+        <v>1306</v>
       </c>
       <c r="K198" s="7">
         <v>2104</v>
@@ -10383,7 +10419,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>141</v>
       </c>
@@ -10412,7 +10448,7 @@
         <v>2485</v>
       </c>
       <c r="J199" s="7">
-        <v>13000</v>
+        <v>1300</v>
       </c>
       <c r="K199" s="7">
         <v>2108</v>
@@ -10421,7 +10457,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>141</v>
       </c>
@@ -10450,7 +10486,7 @@
         <v>2645</v>
       </c>
       <c r="J200" s="7">
-        <v>13200</v>
+        <v>1320</v>
       </c>
       <c r="K200" s="7">
         <v>2416</v>
@@ -10459,7 +10495,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>141</v>
       </c>
@@ -10488,7 +10524,7 @@
         <v>3090</v>
       </c>
       <c r="J201" s="7">
-        <v>14290</v>
+        <v>1429</v>
       </c>
       <c r="K201" s="7">
         <v>2918</v>
@@ -10497,7 +10533,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>141</v>
       </c>
@@ -10526,7 +10562,7 @@
         <v>2965</v>
       </c>
       <c r="J202" s="7">
-        <v>16120</v>
+        <v>1612</v>
       </c>
       <c r="K202" s="7">
         <v>3152</v>
@@ -10535,7 +10571,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>141</v>
       </c>
@@ -10564,7 +10600,7 @@
         <v>2935</v>
       </c>
       <c r="J203" s="7">
-        <v>17260</v>
+        <v>1726</v>
       </c>
       <c r="K203" s="7">
         <v>3118</v>
@@ -10573,7 +10609,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>141</v>
       </c>
@@ -10602,7 +10638,7 @@
         <v>3095</v>
       </c>
       <c r="J204" s="7">
-        <v>17460</v>
+        <v>1746</v>
       </c>
       <c r="K204" s="7">
         <v>3284</v>
@@ -10611,7 +10647,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>141</v>
       </c>
@@ -10640,7 +10676,7 @@
         <v>2820</v>
       </c>
       <c r="J205" s="7">
-        <v>16800</v>
+        <v>1680</v>
       </c>
       <c r="K205" s="7">
         <v>3310</v>
@@ -10649,7 +10685,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>141</v>
       </c>
@@ -10678,7 +10714,7 @@
         <v>2595</v>
       </c>
       <c r="J206" s="7">
-        <v>19060</v>
+        <v>1906</v>
       </c>
       <c r="K206" s="7">
         <v>2932</v>
@@ -10687,7 +10723,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>141</v>
       </c>
@@ -10716,7 +10752,7 @@
         <v>2730</v>
       </c>
       <c r="J207" s="7">
-        <v>19310</v>
+        <v>1931</v>
       </c>
       <c r="K207" s="7">
         <v>2984</v>
@@ -10725,7 +10761,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>141</v>
       </c>
@@ -10754,7 +10790,7 @@
         <v>2780</v>
       </c>
       <c r="J208" s="7">
-        <v>21460</v>
+        <v>2146</v>
       </c>
       <c r="K208" s="7">
         <v>3234</v>
@@ -10763,7 +10799,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>141</v>
       </c>
@@ -10792,7 +10828,7 @@
         <v>3020</v>
       </c>
       <c r="J209" s="7">
-        <v>24130</v>
+        <v>2413</v>
       </c>
       <c r="K209" s="7">
         <v>3310</v>
@@ -10801,7 +10837,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>141</v>
       </c>
@@ -10830,7 +10866,7 @@
         <v>2980</v>
       </c>
       <c r="J210" s="7">
-        <v>24290</v>
+        <v>2429</v>
       </c>
       <c r="K210" s="7">
         <v>3096</v>
@@ -10839,7 +10875,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>141</v>
       </c>
@@ -10868,7 +10904,7 @@
         <v>2880</v>
       </c>
       <c r="J211" s="7">
-        <v>23980</v>
+        <v>2398</v>
       </c>
       <c r="K211" s="7">
         <v>3074</v>
@@ -10877,7 +10913,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>141</v>
       </c>
@@ -10906,7 +10942,7 @@
         <v>2890</v>
       </c>
       <c r="J212" s="7">
-        <v>27700</v>
+        <v>2770</v>
       </c>
       <c r="K212" s="7">
         <v>3028</v>
@@ -10915,7 +10951,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>141</v>
       </c>
@@ -10944,7 +10980,7 @@
         <v>2875</v>
       </c>
       <c r="J213" s="7">
-        <v>30900</v>
+        <v>3090</v>
       </c>
       <c r="K213" s="7">
         <v>3054</v>
@@ -10953,7 +10989,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>141</v>
       </c>
@@ -10982,7 +11018,7 @@
         <v>2845</v>
       </c>
       <c r="J214" s="7">
-        <v>35450</v>
+        <v>3545</v>
       </c>
       <c r="K214" s="7">
         <v>3148</v>
@@ -10991,7 +11027,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>141</v>
       </c>
@@ -11020,7 +11056,7 @@
         <v>3065</v>
       </c>
       <c r="J215" s="7">
-        <v>31400</v>
+        <v>3140</v>
       </c>
       <c r="K215" s="7">
         <v>4230</v>
@@ -11029,7 +11065,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>141</v>
       </c>
@@ -11058,7 +11094,7 @@
         <v>2830</v>
       </c>
       <c r="J216" s="7">
-        <v>34250</v>
+        <v>3425</v>
       </c>
       <c r="K216" s="7">
         <v>4550</v>
@@ -11067,7 +11103,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>141</v>
       </c>
@@ -11096,7 +11132,7 @@
         <v>2745</v>
       </c>
       <c r="J217" s="7">
-        <v>37800</v>
+        <v>3780</v>
       </c>
       <c r="K217" s="7">
         <v>4480</v>
@@ -11105,7 +11141,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>141</v>
       </c>
@@ -11134,7 +11170,7 @@
         <v>2740</v>
       </c>
       <c r="J218" s="7">
-        <v>42500</v>
+        <v>4250</v>
       </c>
       <c r="K218" s="7">
         <v>5550</v>
@@ -11143,7 +11179,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>141</v>
       </c>
@@ -11172,7 +11208,7 @@
         <v>2785</v>
       </c>
       <c r="J219" s="7">
-        <v>44900</v>
+        <v>4490</v>
       </c>
       <c r="K219" s="7">
         <v>5350</v>
@@ -11181,7 +11217,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>141</v>
       </c>
@@ -11210,7 +11246,7 @@
         <v>2605</v>
       </c>
       <c r="J220" s="7">
-        <v>58600</v>
+        <v>5860</v>
       </c>
       <c r="K220" s="7">
         <v>5820</v>
@@ -11219,7 +11255,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>141</v>
       </c>
@@ -11248,7 +11284,7 @@
         <v>2605</v>
       </c>
       <c r="J221" s="7">
-        <v>53600</v>
+        <v>5360</v>
       </c>
       <c r="K221" s="7">
         <v>4600</v>
@@ -11257,7 +11293,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>141</v>
       </c>
@@ -11286,7 +11322,7 @@
         <v>2700</v>
       </c>
       <c r="J222" s="7">
-        <v>59600</v>
+        <v>5960</v>
       </c>
       <c r="K222" s="7">
         <v>5580</v>
@@ -11295,7 +11331,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>141</v>
       </c>
@@ -11324,7 +11360,7 @@
         <v>2710</v>
       </c>
       <c r="J223" s="7">
-        <v>71700</v>
+        <v>7170</v>
       </c>
       <c r="K223" s="7">
         <v>5080</v>
@@ -11333,7 +11369,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>141</v>
       </c>
@@ -11362,7 +11398,7 @@
         <v>2685</v>
       </c>
       <c r="J224" s="7">
-        <v>67200</v>
+        <v>6720</v>
       </c>
       <c r="K224" s="7">
         <v>4560</v>
@@ -11371,7 +11407,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>141</v>
       </c>
@@ -11400,7 +11436,7 @@
         <v>2610</v>
       </c>
       <c r="J225" s="7">
-        <v>66500</v>
+        <v>6650</v>
       </c>
       <c r="K225" s="7">
         <v>3820</v>
@@ -11409,7 +11445,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>141</v>
       </c>
@@ -11438,7 +11474,7 @@
         <v>2590</v>
       </c>
       <c r="J226" s="7">
-        <v>52500</v>
+        <v>5250</v>
       </c>
       <c r="K226" s="7">
         <v>3476</v>
@@ -11447,7 +11483,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>141</v>
       </c>
@@ -11476,7 +11512,7 @@
         <v>2510</v>
       </c>
       <c r="J227" s="7">
-        <v>53300</v>
+        <v>5330</v>
       </c>
       <c r="K227" s="7">
         <v>4510</v>
@@ -11485,7 +11521,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>141</v>
       </c>
@@ -11514,7 +11550,7 @@
         <v>2660</v>
       </c>
       <c r="J228" s="7">
-        <v>50900</v>
+        <v>5090</v>
       </c>
       <c r="K228" s="7">
         <v>3710</v>
@@ -11523,7 +11559,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>141</v>
       </c>
@@ -11552,7 +11588,7 @@
         <v>2650</v>
       </c>
       <c r="J229" s="7">
-        <v>56800</v>
+        <v>5680</v>
       </c>
       <c r="K229" s="7">
         <v>3782</v>
@@ -11561,7 +11597,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>141</v>
       </c>
@@ -11590,7 +11626,7 @@
         <v>2580</v>
       </c>
       <c r="J230" s="7">
-        <v>58300</v>
+        <v>5830</v>
       </c>
       <c r="K230" s="7">
         <v>3538</v>
@@ -11599,7 +11635,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>141</v>
       </c>
@@ -11628,7 +11664,7 @@
         <v>2515</v>
       </c>
       <c r="J231" s="7">
-        <v>59400</v>
+        <v>5940</v>
       </c>
       <c r="K231" s="7">
         <v>3256</v>
@@ -11637,7 +11673,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>141</v>
       </c>
@@ -11666,7 +11702,7 @@
         <v>2465</v>
       </c>
       <c r="J232" s="7">
-        <v>52800</v>
+        <v>5280</v>
       </c>
       <c r="K232" s="7">
         <v>2792</v>
@@ -11675,7 +11711,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>141</v>
       </c>
@@ -11704,7 +11740,7 @@
         <v>2485</v>
       </c>
       <c r="J233" s="7">
-        <v>51400</v>
+        <v>5140</v>
       </c>
       <c r="K233" s="7">
         <v>2804</v>
@@ -11713,7 +11749,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>141</v>
       </c>
@@ -11742,7 +11778,7 @@
         <v>2555</v>
       </c>
       <c r="J234" s="7">
-        <v>43100</v>
+        <v>4310</v>
       </c>
       <c r="K234" s="7">
         <v>2082</v>
@@ -11751,7 +11787,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>141</v>
       </c>
@@ -11780,7 +11816,7 @@
         <v>2475</v>
       </c>
       <c r="J235" s="7">
-        <v>31300</v>
+        <v>3130</v>
       </c>
       <c r="K235" s="7">
         <v>1442</v>
@@ -11789,7 +11825,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>141</v>
       </c>
@@ -11818,7 +11854,7 @@
         <v>2585</v>
       </c>
       <c r="J236" s="7">
-        <v>29540</v>
+        <v>2954</v>
       </c>
       <c r="K236" s="7">
         <v>1816</v>
@@ -11827,7 +11863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>141</v>
       </c>
@@ -11856,7 +11892,7 @@
         <v>2675</v>
       </c>
       <c r="J237" s="7">
-        <v>33750</v>
+        <v>3375</v>
       </c>
       <c r="K237" s="7">
         <v>1884</v>
@@ -11865,7 +11901,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>141</v>
       </c>
@@ -11894,7 +11930,7 @@
         <v>2480</v>
       </c>
       <c r="J238" s="7">
-        <v>28050</v>
+        <v>2805</v>
       </c>
       <c r="K238" s="7">
         <v>1712</v>
@@ -11903,7 +11939,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>141</v>
       </c>
@@ -11932,7 +11968,7 @@
         <v>2450</v>
       </c>
       <c r="J239" s="7">
-        <v>28250</v>
+        <v>2825</v>
       </c>
       <c r="K239" s="7">
         <v>1980</v>
@@ -11941,7 +11977,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>141</v>
       </c>
@@ -11970,7 +12006,7 @@
         <v>2495</v>
       </c>
       <c r="J240" s="7">
-        <v>28550</v>
+        <v>2855</v>
       </c>
       <c r="K240" s="7">
         <v>1882</v>
@@ -11979,7 +12015,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>141</v>
       </c>
@@ -12008,7 +12044,7 @@
         <v>2575</v>
       </c>
       <c r="J241" s="7">
-        <v>26140</v>
+        <v>2614</v>
       </c>
       <c r="K241" s="7">
         <v>2200</v>
@@ -12017,7 +12053,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>141</v>
       </c>
@@ -12046,7 +12082,7 @@
         <v>2595</v>
       </c>
       <c r="J242" s="7">
-        <v>25630</v>
+        <v>2563</v>
       </c>
       <c r="K242" s="7">
         <v>2696</v>
@@ -12055,7 +12091,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>141</v>
       </c>
@@ -12084,7 +12120,7 @@
         <v>2835</v>
       </c>
       <c r="J243" s="7">
-        <v>26710</v>
+        <v>2671</v>
       </c>
       <c r="K243" s="7">
         <v>2726</v>
@@ -12093,7 +12129,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>141</v>
       </c>
@@ -12122,7 +12158,7 @@
         <v>2875</v>
       </c>
       <c r="J244" s="7">
-        <v>25320</v>
+        <v>2532</v>
       </c>
       <c r="K244" s="7">
         <v>2850</v>
@@ -12131,7 +12167,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>141</v>
       </c>
@@ -12160,7 +12196,7 @@
         <v>2925</v>
       </c>
       <c r="J245" s="7">
-        <v>25270</v>
+        <v>2527</v>
       </c>
       <c r="K245" s="7">
         <v>2870</v>
@@ -12169,7 +12205,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>141</v>
       </c>
@@ -12198,7 +12234,7 @@
         <v>2740</v>
       </c>
       <c r="J246" s="7">
-        <v>22670</v>
+        <v>2267</v>
       </c>
       <c r="K246" s="7">
         <v>2948</v>
@@ -12207,7 +12243,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>141</v>
       </c>
@@ -12236,7 +12272,7 @@
         <v>2480</v>
       </c>
       <c r="J247" s="7">
-        <v>23000</v>
+        <v>2300</v>
       </c>
       <c r="K247" s="7">
         <v>2916</v>
@@ -12245,7 +12281,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>141</v>
       </c>
@@ -12274,7 +12310,7 @@
         <v>2400</v>
       </c>
       <c r="J248" s="7">
-        <v>21600</v>
+        <v>2160</v>
       </c>
       <c r="K248" s="7">
         <v>2836</v>
@@ -12283,7 +12319,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>141</v>
       </c>
@@ -12312,7 +12348,7 @@
         <v>2425</v>
       </c>
       <c r="J249" s="7">
-        <v>22190</v>
+        <v>2219</v>
       </c>
       <c r="K249" s="7">
         <v>2758</v>
@@ -12321,7 +12357,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>141</v>
       </c>
@@ -12350,7 +12386,7 @@
         <v>2425</v>
       </c>
       <c r="J250" s="7">
-        <v>25300</v>
+        <v>2530</v>
       </c>
       <c r="K250" s="7">
         <v>2524</v>
@@ -12359,7 +12395,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>141</v>
       </c>
@@ -12388,7 +12424,7 @@
         <v>2440</v>
       </c>
       <c r="J251" s="7">
-        <v>24210</v>
+        <v>2421</v>
       </c>
       <c r="K251" s="7">
         <v>2524</v>
@@ -12397,7 +12433,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>141</v>
       </c>
@@ -12426,7 +12462,7 @@
         <v>2595</v>
       </c>
       <c r="J252" s="7">
-        <v>31500</v>
+        <v>3150</v>
       </c>
       <c r="K252" s="7">
         <v>2782</v>
@@ -12435,7 +12471,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>141</v>
       </c>
@@ -12464,7 +12500,7 @@
         <v>2480</v>
       </c>
       <c r="J253" s="7">
-        <v>31450</v>
+        <v>3145</v>
       </c>
       <c r="K253" s="7">
         <v>2800</v>
@@ -12473,7 +12509,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>141</v>
       </c>
@@ -12502,7 +12538,7 @@
         <v>2375</v>
       </c>
       <c r="J254" s="7">
-        <v>26900</v>
+        <v>2690</v>
       </c>
       <c r="K254" s="7">
         <v>2590</v>
@@ -12511,7 +12547,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>141</v>
       </c>
@@ -12540,7 +12576,7 @@
         <v>2395</v>
       </c>
       <c r="J255" s="7">
-        <v>26110</v>
+        <v>2611</v>
       </c>
       <c r="K255" s="7">
         <v>2240</v>
@@ -12549,7 +12585,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>141</v>
       </c>
@@ -12578,7 +12614,7 @@
         <v>2480</v>
       </c>
       <c r="J256" s="7">
-        <v>24140</v>
+        <v>2414</v>
       </c>
       <c r="K256" s="7">
         <v>2300</v>
@@ -12587,7 +12623,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>141</v>
       </c>
@@ -12616,7 +12652,7 @@
         <v>2400</v>
       </c>
       <c r="J257" s="7">
-        <v>23380</v>
+        <v>2338</v>
       </c>
       <c r="K257" s="7">
         <v>2150</v>
@@ -12625,7 +12661,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>141</v>
       </c>
@@ -12654,7 +12690,7 @@
         <v>2405</v>
       </c>
       <c r="J258" s="7">
-        <v>20820</v>
+        <v>2082</v>
       </c>
       <c r="K258" s="7">
         <v>2550</v>
@@ -12663,7 +12699,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>141</v>
       </c>
@@ -12692,7 +12728,7 @@
         <v>2260</v>
       </c>
       <c r="J259" s="7">
-        <v>20680</v>
+        <v>2068</v>
       </c>
       <c r="K259" s="7">
         <v>2556</v>
@@ -12701,7 +12737,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>141</v>
       </c>
@@ -12730,7 +12766,7 @@
         <v>2275</v>
       </c>
       <c r="J260" s="7">
-        <v>22880</v>
+        <v>2288</v>
       </c>
       <c r="K260" s="7">
         <v>2602</v>
@@ -12739,7 +12775,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>141</v>
       </c>
@@ -12768,7 +12804,7 @@
         <v>2280</v>
       </c>
       <c r="J261" s="7">
-        <v>23820</v>
+        <v>2382</v>
       </c>
       <c r="K261" s="7">
         <v>2838</v>
@@ -12777,7 +12813,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>141</v>
       </c>
@@ -12806,7 +12842,7 @@
         <v>2265</v>
       </c>
       <c r="J262" s="7">
-        <v>22270</v>
+        <v>2227</v>
       </c>
       <c r="K262" s="7">
         <v>2690</v>
@@ -12815,7 +12851,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>141</v>
       </c>
@@ -12844,7 +12880,7 @@
         <v>1985</v>
       </c>
       <c r="J263" s="7">
-        <v>23990</v>
+        <v>2399</v>
       </c>
       <c r="K263" s="7">
         <v>3074</v>
@@ -12853,7 +12889,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>141</v>
       </c>
@@ -12882,7 +12918,7 @@
         <v>1700</v>
       </c>
       <c r="J264" s="7">
-        <v>22750</v>
+        <v>2275</v>
       </c>
       <c r="K264" s="7">
         <v>2862</v>
@@ -12891,7 +12927,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>141</v>
       </c>
@@ -12920,7 +12956,7 @@
         <v>1575</v>
       </c>
       <c r="J265" s="7">
-        <v>19230</v>
+        <v>1923</v>
       </c>
       <c r="K265" s="7">
         <v>2874</v>
@@ -12929,7 +12965,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>141</v>
       </c>
@@ -12958,7 +12994,7 @@
         <v>1540</v>
       </c>
       <c r="J266" s="7">
-        <v>18810</v>
+        <v>1881</v>
       </c>
       <c r="K266" s="7">
         <v>2628</v>
@@ -12967,7 +13003,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>141</v>
       </c>
@@ -12996,7 +13032,7 @@
         <v>1690</v>
       </c>
       <c r="J267" s="7">
-        <v>15010</v>
+        <v>1501</v>
       </c>
       <c r="K267" s="7">
         <v>2630</v>
@@ -13005,7 +13041,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>141</v>
       </c>
@@ -13034,7 +13070,7 @@
         <v>1680</v>
       </c>
       <c r="J268" s="7">
-        <v>12270</v>
+        <v>1227</v>
       </c>
       <c r="K268" s="7">
         <v>2734</v>
@@ -13043,7 +13079,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>141</v>
       </c>
@@ -13072,7 +13108,7 @@
         <v>1745</v>
       </c>
       <c r="J269" s="7">
-        <v>13270</v>
+        <v>1327</v>
       </c>
       <c r="K269" s="7">
         <v>2444</v>
@@ -13081,7 +13117,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>141</v>
       </c>
@@ -13110,7 +13146,7 @@
         <v>1830</v>
       </c>
       <c r="J270" s="7">
-        <v>11220</v>
+        <v>1122</v>
       </c>
       <c r="K270" s="7">
         <v>2074</v>
@@ -13119,7 +13155,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>141</v>
       </c>
@@ -13148,7 +13184,7 @@
         <v>1880</v>
       </c>
       <c r="J271" s="7">
-        <v>12070</v>
+        <v>1207</v>
       </c>
       <c r="K271" s="7">
         <v>2198</v>
@@ -13157,7 +13193,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>141</v>
       </c>
@@ -13186,7 +13222,7 @@
         <v>1945</v>
       </c>
       <c r="J272" s="7">
-        <v>11600</v>
+        <v>1160</v>
       </c>
       <c r="K272" s="7">
         <v>2030</v>
@@ -13195,7 +13231,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>141</v>
       </c>
@@ -13224,7 +13260,7 @@
         <v>1965</v>
       </c>
       <c r="J273" s="7">
-        <v>10540</v>
+        <v>1054</v>
       </c>
       <c r="K273" s="7">
         <v>1978</v>
@@ -13233,7 +13269,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>141</v>
       </c>
@@ -13262,7 +13298,7 @@
         <v>1995</v>
       </c>
       <c r="J274" s="7">
-        <v>10270</v>
+        <v>1027</v>
       </c>
       <c r="K274" s="7">
         <v>2198</v>
@@ -13271,7 +13307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>141</v>
       </c>
@@ -13300,7 +13336,7 @@
         <v>2115</v>
       </c>
       <c r="J275" s="7">
-        <v>12090</v>
+        <v>1209</v>
       </c>
       <c r="K275" s="7">
         <v>2410</v>
@@ -13309,7 +13345,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>141</v>
       </c>
@@ -13338,7 +13374,7 @@
         <v>2195</v>
       </c>
       <c r="J276" s="7">
-        <v>12460</v>
+        <v>1246</v>
       </c>
       <c r="K276" s="7">
         <v>2326</v>
@@ -13347,7 +13383,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>141</v>
       </c>
@@ -13376,7 +13412,7 @@
         <v>2035</v>
       </c>
       <c r="J277" s="7">
-        <v>10840</v>
+        <v>1084</v>
       </c>
       <c r="K277" s="7">
         <v>2112</v>
@@ -13385,7 +13421,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>141</v>
       </c>
@@ -13414,7 +13450,7 @@
         <v>1920</v>
       </c>
       <c r="J278" s="7">
-        <v>9020</v>
+        <v>902</v>
       </c>
       <c r="K278" s="7">
         <v>1770</v>
@@ -13423,7 +13459,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>141</v>
       </c>
@@ -13452,7 +13488,7 @@
         <v>2095</v>
       </c>
       <c r="J279" s="7">
-        <v>9300</v>
+        <v>930</v>
       </c>
       <c r="K279" s="7">
         <v>1782</v>
@@ -13461,7 +13497,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>141</v>
       </c>
@@ -13490,7 +13526,7 @@
         <v>2120</v>
       </c>
       <c r="J280" s="7">
-        <v>8730</v>
+        <v>873</v>
       </c>
       <c r="K280" s="7">
         <v>1688</v>
@@ -13499,7 +13535,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>141</v>
       </c>
@@ -13528,7 +13564,7 @@
         <v>2175</v>
       </c>
       <c r="J281" s="7">
-        <v>8720</v>
+        <v>872</v>
       </c>
       <c r="K281" s="7">
         <v>1616</v>
@@ -13537,7 +13573,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>141</v>
       </c>
@@ -13566,7 +13602,7 @@
         <v>2100</v>
       </c>
       <c r="J282" s="7">
-        <v>9940</v>
+        <v>994</v>
       </c>
       <c r="K282" s="7">
         <v>1970</v>
@@ -13575,7 +13611,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>141</v>
       </c>
@@ -13604,7 +13640,7 @@
         <v>2120</v>
       </c>
       <c r="J283" s="7">
-        <v>10230</v>
+        <v>1023</v>
       </c>
       <c r="K283" s="7">
         <v>2102</v>
@@ -13613,7 +13649,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>141</v>
       </c>
@@ -13642,7 +13678,7 @@
         <v>2130</v>
       </c>
       <c r="J284" s="7">
-        <v>9950</v>
+        <v>995</v>
       </c>
       <c r="K284" s="7">
         <v>2258</v>
@@ -13651,7 +13687,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>141</v>
       </c>
@@ -13680,7 +13716,7 @@
         <v>2285</v>
       </c>
       <c r="J285" s="7">
-        <v>9070</v>
+        <v>907</v>
       </c>
       <c r="K285" s="7">
         <v>2416</v>
@@ -13689,7 +13725,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>141</v>
       </c>
@@ -13718,7 +13754,7 @@
         <v>2455</v>
       </c>
       <c r="J286" s="7">
-        <v>8870</v>
+        <v>887</v>
       </c>
       <c r="K286" s="7">
         <v>2846</v>
@@ -13727,7 +13763,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>141</v>
       </c>
@@ -13756,7 +13792,7 @@
         <v>2545</v>
       </c>
       <c r="J287" s="7">
-        <v>8990</v>
+        <v>899</v>
       </c>
       <c r="K287" s="7">
         <v>2922</v>
@@ -13765,7 +13801,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>141</v>
       </c>
@@ -13794,7 +13830,7 @@
         <v>2685</v>
       </c>
       <c r="J288" s="7">
-        <v>10020</v>
+        <v>1002</v>
       </c>
       <c r="K288" s="7">
         <v>2686</v>
@@ -13803,7 +13839,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>141</v>
       </c>
@@ -13832,7 +13868,7 @@
         <v>2830</v>
       </c>
       <c r="J289" s="7">
-        <v>10720</v>
+        <v>1072</v>
       </c>
       <c r="K289" s="7">
         <v>2714</v>
@@ -13841,7 +13877,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>141</v>
       </c>
@@ -13870,7 +13906,7 @@
         <v>2640</v>
       </c>
       <c r="J290" s="7">
-        <v>10130</v>
+        <v>1013</v>
       </c>
       <c r="K290" s="7">
         <v>2608</v>
@@ -13879,7 +13915,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>141</v>
       </c>
@@ -13908,7 +13944,7 @@
         <v>2555</v>
       </c>
       <c r="J291" s="7">
-        <v>11660</v>
+        <v>1166</v>
       </c>
       <c r="K291" s="7">
         <v>2212</v>
@@ -13917,7 +13953,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>141</v>
       </c>
@@ -13946,7 +13982,7 @@
         <v>2530</v>
       </c>
       <c r="J292" s="7">
-        <v>12420</v>
+        <v>1242</v>
       </c>
       <c r="K292" s="7">
         <v>2560</v>
@@ -13955,7 +13991,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>141</v>
       </c>
@@ -13984,7 +14020,7 @@
         <v>2475</v>
       </c>
       <c r="J293" s="7">
-        <v>11120</v>
+        <v>1112</v>
       </c>
       <c r="K293" s="7">
         <v>2652</v>
@@ -13993,7 +14029,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>141</v>
       </c>
@@ -14022,7 +14058,7 @@
         <v>2590</v>
       </c>
       <c r="J294" s="7">
-        <v>11130</v>
+        <v>1113</v>
       </c>
       <c r="K294" s="7">
         <v>2772</v>
@@ -14031,7 +14067,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>141</v>
       </c>
@@ -14060,7 +14096,7 @@
         <v>2540</v>
       </c>
       <c r="J295" s="7">
-        <v>11020</v>
+        <v>1102</v>
       </c>
       <c r="K295" s="7">
         <v>2716</v>
@@ -14069,7 +14105,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>141</v>
       </c>
@@ -14098,7 +14134,7 @@
         <v>2500</v>
       </c>
       <c r="J296" s="7">
-        <v>13130</v>
+        <v>1313</v>
       </c>
       <c r="K296" s="7">
         <v>2726</v>
@@ -14107,7 +14143,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>141</v>
       </c>
@@ -14136,7 +14172,7 @@
         <v>2550</v>
       </c>
       <c r="J297" s="7">
-        <v>14010</v>
+        <v>1401</v>
       </c>
       <c r="K297" s="7">
         <v>2754</v>
@@ -14145,7 +14181,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>141</v>
       </c>
@@ -14174,7 +14210,7 @@
         <v>2395</v>
       </c>
       <c r="J298" s="7">
-        <v>12150</v>
+        <v>1215</v>
       </c>
       <c r="K298" s="7">
         <v>2690</v>
@@ -14183,7 +14219,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>141</v>
       </c>
@@ -14212,7 +14248,7 @@
         <v>2470</v>
       </c>
       <c r="J299" s="7">
-        <v>12555</v>
+        <v>1255.5</v>
       </c>
       <c r="K299" s="7">
         <v>2660</v>
@@ -14221,7 +14257,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>141</v>
       </c>
@@ -14250,7 +14286,7 @@
         <v>2495</v>
       </c>
       <c r="J300" s="7">
-        <v>12260</v>
+        <v>1226</v>
       </c>
       <c r="K300" s="7">
         <v>2592</v>
@@ -14259,7 +14295,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>141</v>
       </c>
@@ -14288,7 +14324,7 @@
         <v>2500</v>
       </c>
       <c r="J301" s="7">
-        <v>10740</v>
+        <v>1074</v>
       </c>
       <c r="K301" s="7">
         <v>3082</v>
@@ -14297,7 +14333,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>141</v>
       </c>
@@ -14326,7 +14362,7 @@
         <v>2530</v>
       </c>
       <c r="J302" s="7">
-        <v>11770</v>
+        <v>1177</v>
       </c>
       <c r="K302" s="7">
         <v>3078</v>
@@ -14335,7 +14371,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>141</v>
       </c>
@@ -14364,7 +14400,7 @@
         <v>2650</v>
       </c>
       <c r="J303" s="7">
-        <v>12125</v>
+        <v>1212.5</v>
       </c>
       <c r="K303" s="7">
         <v>3290</v>
@@ -14373,7 +14409,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>141</v>
       </c>
@@ -14402,7 +14438,7 @@
         <v>2715</v>
       </c>
       <c r="J304" s="7">
-        <v>11525</v>
+        <v>1152.5</v>
       </c>
       <c r="K304" s="7">
         <v>3461</v>
@@ -14411,7 +14447,7 @@
         <v>731.3</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>141</v>
       </c>
@@ -14440,7 +14476,7 @@
         <v>2725</v>
       </c>
       <c r="J305" s="7">
-        <v>11530</v>
+        <v>1153</v>
       </c>
       <c r="K305" s="7">
         <v>3157</v>
@@ -14449,7 +14485,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>141</v>
       </c>
@@ -14478,7 +14514,7 @@
         <v>2760</v>
       </c>
       <c r="J306" s="7">
-        <v>11930</v>
+        <v>1193</v>
       </c>
       <c r="K306" s="7">
         <v>3088</v>
@@ -14487,7 +14523,7 @@
         <v>750.8</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>141</v>
       </c>
@@ -14516,7 +14552,7 @@
         <v>2795</v>
       </c>
       <c r="J307" s="7">
-        <v>11910</v>
+        <v>1191</v>
       </c>
       <c r="K307" s="7">
         <v>3028</v>
@@ -14525,7 +14561,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>141</v>
       </c>
@@ -14554,7 +14590,7 @@
         <v>2675</v>
       </c>
       <c r="J308" s="7">
-        <v>13760</v>
+        <v>1376</v>
       </c>
       <c r="K308" s="7">
         <v>3634</v>
@@ -14563,7 +14599,7 @@
         <v>748.3</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>141</v>
       </c>
@@ -14592,7 +14628,7 @@
         <v>2590</v>
       </c>
       <c r="J309" s="7">
-        <v>12605</v>
+        <v>1260.5</v>
       </c>
       <c r="K309" s="7">
         <v>3620</v>
@@ -14601,7 +14637,7 @@
         <v>724.7</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>141</v>
       </c>
@@ -14630,7 +14666,7 @@
         <v>2840</v>
       </c>
       <c r="J310" s="7">
-        <v>11430</v>
+        <v>1143</v>
       </c>
       <c r="K310" s="7">
         <v>3396</v>
@@ -14639,7 +14675,7 @@
         <v>653.5</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>141</v>
       </c>
@@ -14668,7 +14704,7 @@
         <v>2970</v>
       </c>
       <c r="J311" s="7">
-        <v>12780</v>
+        <v>1278</v>
       </c>
       <c r="K311" s="7">
         <v>3777</v>
@@ -14677,7 +14713,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>141</v>
       </c>
@@ -14706,7 +14742,7 @@
         <v>2850</v>
       </c>
       <c r="J312" s="7">
-        <v>17675</v>
+        <v>1767.5</v>
       </c>
       <c r="K312" s="7">
         <v>3517</v>
@@ -14715,7 +14751,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>141</v>
       </c>
@@ -14744,7 +14780,7 @@
         <v>2855</v>
       </c>
       <c r="J313" s="7">
-        <v>20320</v>
+        <v>2032</v>
       </c>
       <c r="K313" s="7">
         <v>3535</v>
@@ -14753,7 +14789,7 @@
         <v>743.8</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>141</v>
       </c>
@@ -14782,7 +14818,7 @@
         <v>2740</v>
       </c>
       <c r="J314" s="7">
-        <v>21120</v>
+        <v>2112</v>
       </c>
       <c r="K314" s="7">
         <v>3845</v>
@@ -14791,7 +14827,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>141</v>
       </c>
@@ -14820,7 +14856,7 @@
         <v>2630</v>
       </c>
       <c r="J315" s="7">
-        <v>20470</v>
+        <v>2047</v>
       </c>
       <c r="K315" s="7">
         <v>3727</v>
@@ -14829,7 +14865,7 @@
         <v>702.3</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>141</v>
       </c>
@@ -14858,7 +14894,7 @@
         <v>2985</v>
       </c>
       <c r="J316" s="7">
-        <v>21810</v>
+        <v>2181</v>
       </c>
       <c r="K316" s="7">
         <v>3339</v>
@@ -14867,7 +14903,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>141</v>
       </c>
@@ -14896,7 +14932,7 @@
         <v>2705</v>
       </c>
       <c r="J317" s="7">
-        <v>25010</v>
+        <v>2501</v>
       </c>
       <c r="K317" s="7">
         <v>3082</v>
@@ -14905,7 +14941,7 @@
         <v>665.2</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>141</v>
       </c>
@@ -14934,7 +14970,7 @@
         <v>2565</v>
       </c>
       <c r="J318" s="7">
-        <v>20060</v>
+        <v>2006</v>
       </c>
       <c r="K318" s="7">
         <v>2704</v>
@@ -14943,7 +14979,7 @@
         <v>583.79999999999995</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>141</v>
       </c>
@@ -14972,7 +15008,7 @@
         <v>2935</v>
       </c>
       <c r="J319" s="7">
-        <v>19480</v>
+        <v>1948</v>
       </c>
       <c r="K319" s="7">
         <v>3021</v>
@@ -14981,7 +15017,7 @@
         <v>702.4</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>141</v>
       </c>
@@ -15010,7 +15046,7 @@
         <v>3000</v>
       </c>
       <c r="J320" s="7">
-        <v>18905</v>
+        <v>1890.5</v>
       </c>
       <c r="K320" s="7">
         <v>2776</v>
@@ -15019,7 +15055,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>141</v>
       </c>
@@ -15048,7 +15084,7 @@
         <v>2990</v>
       </c>
       <c r="J321" s="7">
-        <v>16755</v>
+        <v>1675.5</v>
       </c>
       <c r="K321" s="7">
         <v>2959</v>
@@ -15057,7 +15093,7 @@
         <v>625.1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>141</v>
       </c>
@@ -15086,7 +15122,7 @@
         <v>2920</v>
       </c>
       <c r="J322" s="7">
-        <v>16655</v>
+        <v>1665.5</v>
       </c>
       <c r="K322" s="7">
         <v>2514</v>
@@ -15095,7 +15131,7 @@
         <v>570.6</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>141</v>
       </c>
@@ -15124,7 +15160,7 @@
         <v>2940</v>
       </c>
       <c r="J323" s="7">
-        <v>15815</v>
+        <v>1581.5</v>
       </c>
       <c r="K323" s="7">
         <v>2425</v>
@@ -15133,7 +15169,7 @@
         <v>565.4</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>141</v>
       </c>
@@ -15162,7 +15198,7 @@
         <v>2805</v>
       </c>
       <c r="J324" s="7">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="K324" s="7">
         <v>2235</v>
@@ -15171,7 +15207,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>141</v>
       </c>
@@ -15200,7 +15236,7 @@
         <v>2810</v>
       </c>
       <c r="J325" s="7">
-        <v>15155</v>
+        <v>1515.5</v>
       </c>
       <c r="K325" s="7">
         <v>2504</v>
@@ -15209,7 +15245,7 @@
         <v>586.1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>141</v>
       </c>
@@ -15238,7 +15274,7 @@
         <v>2815</v>
       </c>
       <c r="J326" s="7">
-        <v>16450</v>
+        <v>1645</v>
       </c>
       <c r="K326" s="7">
         <v>2286</v>
@@ -15247,7 +15283,7 @@
         <v>532.9</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>141</v>
       </c>
@@ -15276,7 +15312,7 @@
         <v>2805</v>
       </c>
       <c r="J327" s="7">
-        <v>14585</v>
+        <v>1458.5</v>
       </c>
       <c r="K327" s="7">
         <v>2057</v>
@@ -15285,7 +15321,7 @@
         <v>459.5</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>141</v>
       </c>
@@ -15314,7 +15350,7 @@
         <v>2775</v>
       </c>
       <c r="J328" s="7">
-        <v>21505</v>
+        <v>2150.5</v>
       </c>
       <c r="K328" s="7">
         <v>2487</v>
@@ -15323,7 +15359,7 @@
         <v>481.2</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>141</v>
       </c>
@@ -15352,7 +15388,7 @@
         <v>2510</v>
       </c>
       <c r="J329" s="7">
-        <v>22675</v>
+        <v>2267.5</v>
       </c>
       <c r="K329" s="7">
         <v>2624</v>
@@ -15361,7 +15397,7 @@
         <v>515.70000000000005</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>141</v>
       </c>
@@ -15390,7 +15426,7 @@
         <v>2565</v>
       </c>
       <c r="J330" s="7">
-        <v>26605</v>
+        <v>2660.5</v>
       </c>
       <c r="K330" s="7">
         <v>2773</v>
@@ -15399,7 +15435,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>141</v>
       </c>
@@ -15428,7 +15464,7 @@
         <v>2580</v>
       </c>
       <c r="J331" s="7">
-        <v>25440</v>
+        <v>2544</v>
       </c>
       <c r="K331" s="7">
         <v>2719</v>
@@ -15437,7 +15473,7 @@
         <v>552.70000000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>141</v>
       </c>
@@ -15466,7 +15502,7 @@
         <v>2740</v>
       </c>
       <c r="J332" s="7">
-        <v>27775</v>
+        <v>2777.5</v>
       </c>
       <c r="K332" s="7">
         <v>3056</v>
@@ -15475,7 +15511,7 @@
         <v>626.29999999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>141</v>
       </c>
@@ -15504,7 +15540,7 @@
         <v>2900</v>
       </c>
       <c r="J333" s="7">
-        <v>24540</v>
+        <v>2454</v>
       </c>
       <c r="K333" s="7">
         <v>3014</v>
@@ -15513,7 +15549,7 @@
         <v>662.8</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>141</v>
       </c>
@@ -15542,7 +15578,7 @@
         <v>2865</v>
       </c>
       <c r="J334" s="7">
-        <v>23120</v>
+        <v>2312</v>
       </c>
       <c r="K334" s="7">
         <v>3064</v>
@@ -15551,7 +15587,7 @@
         <v>687.6</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>141</v>
       </c>
@@ -15580,7 +15616,7 @@
         <v>2875</v>
       </c>
       <c r="J335" s="7">
-        <v>23500</v>
+        <v>2350</v>
       </c>
       <c r="K335" s="7">
         <v>3122</v>
@@ -15589,7 +15625,7 @@
         <v>726.8</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>141</v>
       </c>
@@ -15618,7 +15654,7 @@
         <v>2820</v>
       </c>
       <c r="J336" s="7">
-        <v>25835</v>
+        <v>2583.5</v>
       </c>
       <c r="K336" s="7">
         <v>3167</v>
@@ -15627,7 +15663,7 @@
         <v>685.5</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>141</v>
       </c>
@@ -15656,7 +15692,7 @@
         <v>2825</v>
       </c>
       <c r="J337" s="7">
-        <v>28045</v>
+        <v>2804.5</v>
       </c>
       <c r="K337" s="7">
         <v>3023</v>
@@ -15665,7 +15701,7 @@
         <v>686.4</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>141</v>
       </c>
@@ -15694,7 +15730,7 @@
         <v>2955</v>
       </c>
       <c r="J338" s="7">
-        <v>33650</v>
+        <v>3365</v>
       </c>
       <c r="K338" s="7">
         <v>2692</v>
@@ -15703,7 +15739,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>141</v>
       </c>
@@ -15732,7 +15768,7 @@
         <v>3065</v>
       </c>
       <c r="J339" s="7">
-        <v>37680</v>
+        <v>3768</v>
       </c>
       <c r="K339" s="7">
         <v>3001</v>
@@ -15741,7 +15777,7 @@
         <v>725.8</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>141</v>
       </c>
@@ -15770,7 +15806,7 @@
         <v>2920</v>
       </c>
       <c r="J340" s="7">
-        <v>37480</v>
+        <v>3748</v>
       </c>
       <c r="K340" s="7">
         <v>3337</v>
@@ -15779,7 +15815,7 @@
         <v>731.3</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>141</v>
       </c>
@@ -15808,7 +15844,7 @@
         <v>3040</v>
       </c>
       <c r="J341" s="7">
-        <v>36640</v>
+        <v>3664</v>
       </c>
       <c r="K341" s="7">
         <v>3790</v>
@@ -15817,7 +15853,7 @@
         <v>715.4</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>141</v>
       </c>
@@ -15846,7 +15882,7 @@
         <v>3090</v>
       </c>
       <c r="J342" s="7">
-        <v>41560</v>
+        <v>4156</v>
       </c>
       <c r="K342" s="7">
         <v>3614</v>
@@ -15855,7 +15891,7 @@
         <v>768.5</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>141</v>
       </c>
@@ -15884,7 +15920,7 @@
         <v>3320</v>
       </c>
       <c r="J343" s="7">
-        <v>43800</v>
+        <v>4380</v>
       </c>
       <c r="K343" s="7">
         <v>4456</v>
@@ -15893,7 +15929,7 @@
         <v>756.7</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>141</v>
       </c>
@@ -15922,7 +15958,7 @@
         <v>3575</v>
       </c>
       <c r="J344" s="7">
-        <v>45200</v>
+        <v>4520</v>
       </c>
       <c r="K344" s="7">
         <v>4355</v>
@@ -15931,7 +15967,7 @@
         <v>745.8</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>141</v>
       </c>
@@ -15960,7 +15996,7 @@
         <v>3640</v>
       </c>
       <c r="J345" s="7">
-        <v>41190</v>
+        <v>4119</v>
       </c>
       <c r="K345" s="7">
         <v>5178</v>
@@ -15969,7 +16005,7 @@
         <v>816.1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>141</v>
       </c>
@@ -15998,7 +16034,7 @@
         <v>3665</v>
       </c>
       <c r="J346" s="7">
-        <v>47970</v>
+        <v>4797</v>
       </c>
       <c r="K346" s="7">
         <v>5108</v>
@@ -16007,7 +16043,7 @@
         <v>818.2</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>141</v>
       </c>
@@ -16036,7 +16072,7 @@
         <v>3310</v>
       </c>
       <c r="J347" s="7">
-        <v>49080</v>
+        <v>4908</v>
       </c>
       <c r="K347" s="7">
         <v>5032</v>
@@ -16045,7 +16081,7 @@
         <v>819.7</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>141</v>
       </c>
@@ -16074,7 +16110,7 @@
         <v>3205</v>
       </c>
       <c r="J348" s="7">
-        <v>46860</v>
+        <v>4686</v>
       </c>
       <c r="K348" s="7">
         <v>4480</v>
@@ -16083,7 +16119,7 @@
         <v>769.9</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>141</v>
       </c>
@@ -16112,7 +16148,7 @@
         <v>3490</v>
       </c>
       <c r="J349" s="7">
-        <v>46170</v>
+        <v>4617</v>
       </c>
       <c r="K349" s="7">
         <v>4698</v>
@@ -16121,7 +16157,7 @@
         <v>824.2</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>141</v>
       </c>
@@ -16150,7 +16186,7 @@
         <v>3375</v>
       </c>
       <c r="J350" s="7">
-        <v>45000</v>
+        <v>4500</v>
       </c>
       <c r="K350" s="7">
         <v>4166</v>
@@ -16159,7 +16195,7 @@
         <v>848.4</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>141</v>
       </c>
@@ -16188,7 +16224,7 @@
         <v>3390</v>
       </c>
       <c r="J351" s="7">
-        <v>36200</v>
+        <v>3620</v>
       </c>
       <c r="K351" s="7">
         <v>4238</v>
@@ -16197,7 +16233,7 @@
         <v>845.1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>141</v>
       </c>
@@ -16226,7 +16262,7 @@
         <v>3290</v>
       </c>
       <c r="J352" s="7">
-        <v>36760</v>
+        <v>3676</v>
       </c>
       <c r="K352" s="7">
         <v>4015</v>
@@ -16235,7 +16271,7 @@
         <v>850.8</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>141</v>
       </c>
@@ -16264,7 +16300,7 @@
         <v>3100</v>
       </c>
       <c r="J353" s="7">
-        <v>40160</v>
+        <v>4016</v>
       </c>
       <c r="K353" s="7">
         <v>3590</v>
@@ -16273,7 +16309,7 @@
         <v>911.6</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>141</v>
       </c>
@@ -16302,7 +16338,7 @@
         <v>3360</v>
       </c>
       <c r="J354" s="7">
-        <v>41460</v>
+        <v>4146</v>
       </c>
       <c r="K354" s="7">
         <v>3986</v>
@@ -16311,7 +16347,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>141</v>
       </c>
@@ -16340,7 +16376,7 @@
         <v>3135</v>
       </c>
       <c r="J355" s="7">
-        <v>35160</v>
+        <v>3516</v>
       </c>
       <c r="K355" s="7">
         <v>3560</v>
@@ -16349,7 +16385,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>141</v>
       </c>
@@ -16378,7 +16414,7 @@
         <v>3250</v>
       </c>
       <c r="J356" s="7">
-        <v>34610</v>
+        <v>3461</v>
       </c>
       <c r="K356" s="7">
         <v>3305</v>
@@ -16387,7 +16423,7 @@
         <v>847.5</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>141</v>
       </c>
@@ -16416,7 +16452,7 @@
         <v>2963</v>
       </c>
       <c r="J357" s="7">
-        <v>29285</v>
+        <v>2928.5</v>
       </c>
       <c r="K357" s="9">
         <v>2947.5</v>
@@ -16425,7 +16461,7 @@
         <v>772.4</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>141</v>
       </c>
@@ -16454,7 +16490,7 @@
         <v>3070</v>
       </c>
       <c r="J358" s="7">
-        <v>33830</v>
+        <v>3383</v>
       </c>
       <c r="K358" s="7">
         <v>3136</v>
@@ -16463,7 +16499,7 @@
         <v>846.6</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>141</v>
       </c>
@@ -16492,7 +16528,7 @@
         <v>3110</v>
       </c>
       <c r="J359" s="7">
-        <v>30440</v>
+        <v>3044</v>
       </c>
       <c r="K359" s="7">
         <v>3264</v>
@@ -16501,7 +16537,7 @@
         <v>794.7</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>141</v>
       </c>
@@ -16530,7 +16566,7 @@
         <v>3195</v>
       </c>
       <c r="J360" s="7">
-        <v>31560</v>
+        <v>3156</v>
       </c>
       <c r="K360" s="7">
         <v>3270</v>
@@ -16539,7 +16575,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>141</v>
       </c>
@@ -16568,7 +16604,7 @@
         <v>3140</v>
       </c>
       <c r="J361" s="7">
-        <v>38000</v>
+        <v>3800</v>
       </c>
       <c r="K361" s="7">
         <v>3479</v>
@@ -16577,7 +16613,7 @@
         <v>795.1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>141</v>
       </c>
@@ -16606,7 +16642,7 @@
         <v>3160</v>
       </c>
       <c r="J362" s="7">
-        <v>38700</v>
+        <v>3870</v>
       </c>
       <c r="K362" s="7">
         <v>2862</v>
@@ -16615,7 +16651,7 @@
         <v>683.4</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>141</v>
       </c>
@@ -16644,7 +16680,7 @@
         <v>3140</v>
       </c>
       <c r="J363" s="7">
-        <v>39490</v>
+        <v>3949</v>
       </c>
       <c r="K363" s="7">
         <v>3219</v>
@@ -16653,7 +16689,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>141</v>
       </c>
@@ -16682,7 +16718,7 @@
         <v>3110</v>
       </c>
       <c r="J364" s="7">
-        <v>40100</v>
+        <v>4010</v>
       </c>
       <c r="K364" s="7">
         <v>3115</v>
@@ -16691,7 +16727,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>141</v>
       </c>
@@ -16720,7 +16756,7 @@
         <v>3260</v>
       </c>
       <c r="J365" s="7">
-        <v>40290</v>
+        <v>4029</v>
       </c>
       <c r="K365" s="9">
         <v>2991.5</v>
@@ -16729,7 +16765,7 @@
         <v>678.1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>141</v>
       </c>
@@ -16758,7 +16794,7 @@
         <v>3500</v>
       </c>
       <c r="J366" s="7">
-        <v>40020</v>
+        <v>4002</v>
       </c>
       <c r="K366" s="7">
         <v>3347</v>
@@ -16767,7 +16803,7 @@
         <v>717.7</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>141</v>
       </c>
@@ -16796,7 +16832,7 @@
         <v>3625</v>
       </c>
       <c r="J367" s="7">
-        <v>38620</v>
+        <v>3862</v>
       </c>
       <c r="K367" s="7">
         <v>3656</v>
@@ -16805,7 +16841,7 @@
         <v>765.8</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>141</v>
       </c>
@@ -16834,7 +16870,7 @@
         <v>4005</v>
       </c>
       <c r="J368" s="7">
-        <v>42350</v>
+        <v>4235</v>
       </c>
       <c r="K368" s="7">
         <v>3316</v>
@@ -16843,7 +16879,7 @@
         <v>808.2</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>141</v>
       </c>
@@ -16872,7 +16908,7 @@
         <v>3955</v>
       </c>
       <c r="J369" s="7">
-        <v>43970</v>
+        <v>4397</v>
       </c>
       <c r="K369" s="7">
         <v>3544</v>
@@ -16881,7 +16917,7 @@
         <v>810.6</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>141</v>
       </c>
@@ -16910,7 +16946,7 @@
         <v>3870</v>
       </c>
       <c r="J370" s="7">
-        <v>40770</v>
+        <v>4077</v>
       </c>
       <c r="K370" s="7">
         <v>3164</v>
@@ -16919,7 +16955,7 @@
         <v>795.2</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>141</v>
       </c>
@@ -16948,7 +16984,7 @@
         <v>3220</v>
       </c>
       <c r="J371" s="7">
-        <v>36270</v>
+        <v>3627</v>
       </c>
       <c r="K371" s="9">
         <v>2685.5</v>
@@ -16957,7 +16993,7 @@
         <v>716.8</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>141</v>
       </c>
@@ -16986,7 +17022,7 @@
         <v>3770</v>
       </c>
       <c r="J372" s="7">
-        <v>41610</v>
+        <v>4161</v>
       </c>
       <c r="K372" s="7">
         <v>2218</v>
@@ -16995,7 +17031,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>141</v>
       </c>
@@ -17024,7 +17060,7 @@
         <v>3665</v>
       </c>
       <c r="J373" s="7">
-        <v>44650</v>
+        <v>4465</v>
       </c>
       <c r="K373" s="9">
         <v>2718.5</v>
@@ -17033,7 +17069,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>141</v>
       </c>
@@ -17062,7 +17098,7 @@
         <v>3820</v>
       </c>
       <c r="J374" s="7">
-        <v>43540</v>
+        <v>4354</v>
       </c>
       <c r="K374" s="7">
         <v>3001</v>
@@ -17071,7 +17107,7 @@
         <v>523.29999999999995</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>141</v>
       </c>
@@ -17100,7 +17136,7 @@
         <v>3565</v>
       </c>
       <c r="J375" s="7">
-        <v>48010</v>
+        <v>4801</v>
       </c>
       <c r="K375" s="7">
         <v>3009</v>
@@ -17109,7 +17145,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>141</v>
       </c>
@@ -17138,7 +17174,7 @@
         <v>2946</v>
       </c>
       <c r="J376" s="7">
-        <v>46440</v>
+        <v>4644</v>
       </c>
       <c r="K376" s="7">
         <v>3134</v>
@@ -17147,7 +17183,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>141</v>
       </c>
@@ -17176,7 +17212,7 @@
         <v>3310</v>
       </c>
       <c r="J377" s="7">
-        <v>56740</v>
+        <v>5674</v>
       </c>
       <c r="K377" s="7">
         <v>3237</v>
@@ -17185,7 +17221,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>141</v>
       </c>
@@ -17214,7 +17250,7 @@
         <v>3245</v>
       </c>
       <c r="J378" s="7">
-        <v>59660</v>
+        <v>5966</v>
       </c>
       <c r="K378" s="7">
         <v>3245</v>
@@ -17223,7 +17259,7 @@
         <v>594.5</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>141</v>
       </c>
@@ -17252,7 +17288,7 @@
         <v>2955</v>
       </c>
       <c r="J379" s="7">
-        <v>56980</v>
+        <v>5698</v>
       </c>
       <c r="K379" s="7">
         <v>3223</v>
@@ -17261,7 +17297,7 @@
         <v>543.20000000000005</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>141</v>
       </c>
@@ -17290,7 +17326,7 @@
         <v>3130</v>
       </c>
       <c r="J380" s="7">
-        <v>59260</v>
+        <v>5926</v>
       </c>
       <c r="K380" s="7">
         <v>3887</v>
@@ -17299,7 +17335,7 @@
         <v>608.5</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>141</v>
       </c>
@@ -17328,7 +17364,7 @@
         <v>3075</v>
       </c>
       <c r="J381" s="7">
-        <v>65830</v>
+        <v>6583</v>
       </c>
       <c r="K381" s="7">
         <v>4579</v>
@@ -17337,7 +17373,7 @@
         <v>686.1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>141</v>
       </c>
@@ -17366,7 +17402,7 @@
         <v>2947</v>
       </c>
       <c r="J382" s="7">
-        <v>60580</v>
+        <v>6058</v>
       </c>
       <c r="K382" s="7">
         <v>4544</v>
@@ -17375,7 +17411,7 @@
         <v>694.3</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>141</v>
       </c>
@@ -17404,7 +17440,7 @@
         <v>3030</v>
       </c>
       <c r="J383" s="7">
-        <v>64750</v>
+        <v>6475</v>
       </c>
       <c r="K383" s="7">
         <v>5142</v>
@@ -17413,7 +17449,7 @@
         <v>791.7</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>141</v>
       </c>
@@ -17442,7 +17478,7 @@
         <v>2976</v>
       </c>
       <c r="J384" s="7">
-        <v>61810</v>
+        <v>6181</v>
       </c>
       <c r="K384" s="7">
         <v>4779</v>
@@ -17451,7 +17487,7 @@
         <v>920.8</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>141</v>
       </c>
@@ -17480,7 +17516,7 @@
         <v>2810</v>
       </c>
       <c r="J385" s="7">
-        <v>62690</v>
+        <v>6269</v>
       </c>
       <c r="K385" s="7">
         <v>4639</v>
@@ -17489,7 +17525,7 @@
         <v>908.6</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>141</v>
       </c>
@@ -17518,7 +17554,7 @@
         <v>2787</v>
       </c>
       <c r="J386" s="7">
-        <v>67700</v>
+        <v>6770</v>
       </c>
       <c r="K386" s="7">
         <v>4908</v>
@@ -17527,7 +17563,7 @@
         <v>967.3</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>141</v>
       </c>
@@ -17556,7 +17592,7 @@
         <v>2872</v>
       </c>
       <c r="J387" s="7">
-        <v>64620</v>
+        <v>6462</v>
       </c>
       <c r="K387" s="7">
         <v>4325</v>
@@ -17565,7 +17601,7 @@
         <v>966.1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>141</v>
       </c>
@@ -17594,7 +17630,7 @@
         <v>2836</v>
       </c>
       <c r="J388" s="7">
-        <v>56400</v>
+        <v>5640</v>
       </c>
       <c r="K388" s="7">
         <v>4418</v>
@@ -17603,7 +17639,7 @@
         <v>925.9</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>141</v>
       </c>
@@ -17632,7 +17668,7 @@
         <v>2871</v>
       </c>
       <c r="J389" s="7">
-        <v>52900</v>
+        <v>5290</v>
       </c>
       <c r="K389" s="7">
         <v>4224</v>
@@ -17641,7 +17677,7 @@
         <v>875.6</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>141</v>
       </c>
@@ -17670,7 +17706,7 @@
         <v>3015</v>
       </c>
       <c r="J390" s="7">
-        <v>54310</v>
+        <v>5431</v>
       </c>
       <c r="K390" s="7">
         <v>4065</v>
@@ -17679,7 +17715,7 @@
         <v>933.2</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>141</v>
       </c>
@@ -17708,7 +17744,7 @@
         <v>2831</v>
       </c>
       <c r="J391" s="7">
-        <v>50200</v>
+        <v>5020</v>
       </c>
       <c r="K391" s="7">
         <v>4423</v>
@@ -17717,7 +17753,7 @@
         <v>961.2</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>141</v>
       </c>
@@ -17746,7 +17782,7 @@
         <v>2565</v>
       </c>
       <c r="J392" s="7">
-        <v>50100</v>
+        <v>5010</v>
       </c>
       <c r="K392" s="7">
         <v>4233</v>
@@ -17755,7 +17791,7 @@
         <v>1017.5</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>141</v>
       </c>
@@ -17784,7 +17820,7 @@
         <v>2622</v>
       </c>
       <c r="J393" s="7">
-        <v>53650</v>
+        <v>5365</v>
       </c>
       <c r="K393" s="7">
         <v>4350</v>
@@ -17793,7 +17829,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>141</v>
       </c>
@@ -17822,7 +17858,7 @@
         <v>2681</v>
       </c>
       <c r="J394" s="7">
-        <v>56160</v>
+        <v>5616</v>
       </c>
       <c r="K394" s="7">
         <v>5248</v>
@@ -17831,7 +17867,7 @@
         <v>1179.5</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>141</v>
       </c>
@@ -17860,7 +17896,7 @@
         <v>2825</v>
       </c>
       <c r="J395" s="7">
-        <v>58020</v>
+        <v>5802</v>
       </c>
       <c r="K395" s="7">
         <v>5746</v>
@@ -17869,7 +17905,7 @@
         <v>1203.5</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>141</v>
       </c>
@@ -17898,7 +17934,7 @@
         <v>2979</v>
       </c>
       <c r="J396" s="7">
-        <v>61670</v>
+        <v>6167</v>
       </c>
       <c r="K396" s="7">
         <v>6163</v>
@@ -17907,7 +17943,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>141</v>
       </c>
@@ -17936,7 +17972,7 @@
         <v>2923</v>
       </c>
       <c r="J397" s="7">
-        <v>59910</v>
+        <v>5991</v>
       </c>
       <c r="K397" s="7">
         <v>5671</v>
@@ -17945,7 +17981,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>141</v>
       </c>
@@ -17974,7 +18010,7 @@
         <v>2887</v>
       </c>
       <c r="J398" s="7">
-        <v>57420</v>
+        <v>5742</v>
       </c>
       <c r="K398" s="7">
         <v>5416</v>
@@ -17983,7 +18019,7 @@
         <v>1353.5</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>141</v>
       </c>
@@ -17991,34 +18027,490 @@
         <v>531</v>
       </c>
       <c r="C399" s="9">
-        <v>741.8</v>
+        <v>761.2</v>
       </c>
       <c r="D399" s="7">
-        <v>11505</v>
+        <v>11095</v>
       </c>
       <c r="E399" s="7">
-        <v>2500</v>
+        <v>2499.5</v>
       </c>
       <c r="F399" s="7">
-        <v>3776</v>
+        <v>3818</v>
       </c>
       <c r="G399" s="9">
-        <v>2121.5</v>
+        <v>2100</v>
       </c>
       <c r="H399" s="7">
-        <v>1117</v>
+        <v>1096.5</v>
       </c>
       <c r="I399" s="7">
-        <v>3005</v>
+        <v>3095</v>
       </c>
       <c r="J399" s="7">
-        <v>58380</v>
+        <v>5868</v>
       </c>
       <c r="K399" s="7">
-        <v>4326</v>
+        <v>4250</v>
       </c>
       <c r="L399" s="9">
-        <v>1231.5</v>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C400" s="10">
+        <v>732.6</v>
+      </c>
+      <c r="D400" s="10">
+        <v>11695</v>
+      </c>
+      <c r="E400" s="10">
+        <v>2473</v>
+      </c>
+      <c r="F400" s="10">
+        <v>3925</v>
+      </c>
+      <c r="G400" s="10">
+        <v>2137</v>
+      </c>
+      <c r="H400" s="10">
+        <v>1094</v>
+      </c>
+      <c r="I400" s="10">
+        <v>3150</v>
+      </c>
+      <c r="J400" s="10">
+        <v>5971</v>
+      </c>
+      <c r="K400" s="10">
+        <v>4214</v>
+      </c>
+      <c r="L400" s="10">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C401" s="10">
+        <v>798.9</v>
+      </c>
+      <c r="D401" s="10">
+        <v>11135</v>
+      </c>
+      <c r="E401" s="10">
+        <v>2687.5</v>
+      </c>
+      <c r="F401" s="10">
+        <v>3850</v>
+      </c>
+      <c r="G401" s="10">
+        <v>2101.5</v>
+      </c>
+      <c r="H401" s="10">
+        <v>1133</v>
+      </c>
+      <c r="I401" s="10">
+        <v>3295</v>
+      </c>
+      <c r="J401" s="10">
+        <v>5699</v>
+      </c>
+      <c r="K401" s="10">
+        <v>4405</v>
+      </c>
+      <c r="L401" s="10">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C402" s="10">
+        <v>711.8</v>
+      </c>
+      <c r="D402" s="10">
+        <v>9286</v>
+      </c>
+      <c r="E402" s="10">
+        <v>2718</v>
+      </c>
+      <c r="F402" s="10">
+        <v>3767</v>
+      </c>
+      <c r="G402" s="10">
+        <v>1876</v>
+      </c>
+      <c r="H402" s="10">
+        <v>1014.5</v>
+      </c>
+      <c r="I402" s="10">
+        <v>3410</v>
+      </c>
+      <c r="J402" s="10">
+        <v>5854</v>
+      </c>
+      <c r="K402" s="10">
+        <v>4160</v>
+      </c>
+      <c r="L402" s="10">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C403" s="10">
+        <v>724.5</v>
+      </c>
+      <c r="D403" s="10">
+        <v>9988</v>
+      </c>
+      <c r="E403" s="10">
+        <v>2891</v>
+      </c>
+      <c r="F403" s="10">
+        <v>3918</v>
+      </c>
+      <c r="G403" s="10">
+        <v>2059.5</v>
+      </c>
+      <c r="H403" s="10">
+        <v>1064.5</v>
+      </c>
+      <c r="I403" s="10">
+        <v>3440</v>
+      </c>
+      <c r="J403" s="10">
+        <v>6070</v>
+      </c>
+      <c r="K403" s="10">
+        <v>4182</v>
+      </c>
+      <c r="L403" s="10">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C404" s="10">
+        <v>738.6</v>
+      </c>
+      <c r="D404" s="10">
+        <v>11255</v>
+      </c>
+      <c r="E404" s="10">
+        <v>2944.5</v>
+      </c>
+      <c r="F404" s="10">
+        <v>4050</v>
+      </c>
+      <c r="G404" s="10">
+        <v>2010.5</v>
+      </c>
+      <c r="H404" s="10">
+        <v>1274</v>
+      </c>
+      <c r="I404" s="10">
+        <v>3310</v>
+      </c>
+      <c r="J404" s="10">
+        <v>5894</v>
+      </c>
+      <c r="K404" s="10">
+        <v>4645</v>
+      </c>
+      <c r="L404" s="10">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C405" s="10">
+        <v>736.6</v>
+      </c>
+      <c r="D405" s="10">
+        <v>10035</v>
+      </c>
+      <c r="E405" s="10">
+        <v>2800</v>
+      </c>
+      <c r="F405" s="10">
+        <v>4111</v>
+      </c>
+      <c r="G405" s="10">
+        <v>1812.5</v>
+      </c>
+      <c r="H405" s="10">
+        <v>1110.5</v>
+      </c>
+      <c r="I405" s="10">
+        <v>3080</v>
+      </c>
+      <c r="J405" s="10">
+        <v>5532</v>
+      </c>
+      <c r="K405" s="10">
+        <v>4671</v>
+      </c>
+      <c r="L405" s="10">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C406" s="10">
+        <v>795.8</v>
+      </c>
+      <c r="D406" s="10">
+        <v>11580</v>
+      </c>
+      <c r="E406" s="10">
+        <v>2869.5</v>
+      </c>
+      <c r="F406" s="10">
+        <v>4090</v>
+      </c>
+      <c r="G406" s="10">
+        <v>1896.5</v>
+      </c>
+      <c r="H406" s="10">
+        <v>1200</v>
+      </c>
+      <c r="I406" s="10">
+        <v>3045</v>
+      </c>
+      <c r="J406" s="10">
+        <v>5625</v>
+      </c>
+      <c r="K406" s="10">
+        <v>5248</v>
+      </c>
+      <c r="L406" s="10">
+        <v>1586.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C407" s="10">
+        <v>779.2</v>
+      </c>
+      <c r="D407" s="10">
+        <v>11430</v>
+      </c>
+      <c r="E407" s="10">
+        <v>2763.5</v>
+      </c>
+      <c r="F407" s="10">
+        <v>4212</v>
+      </c>
+      <c r="G407" s="10">
+        <v>1862.5</v>
+      </c>
+      <c r="H407" s="10">
+        <v>1187</v>
+      </c>
+      <c r="I407" s="10">
+        <v>3040</v>
+      </c>
+      <c r="J407" s="10">
+        <v>5124</v>
+      </c>
+      <c r="K407" s="10">
+        <v>5060</v>
+      </c>
+      <c r="L407" s="10">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C408" s="10">
+        <v>756.4</v>
+      </c>
+      <c r="D408" s="10">
+        <v>11985</v>
+      </c>
+      <c r="E408" s="10">
+        <v>2876</v>
+      </c>
+      <c r="F408" s="10">
+        <v>4350</v>
+      </c>
+      <c r="G408" s="10">
+        <v>1880</v>
+      </c>
+      <c r="H408" s="10">
+        <v>1182</v>
+      </c>
+      <c r="I408" s="10">
+        <v>3170</v>
+      </c>
+      <c r="J408" s="10">
+        <v>5131</v>
+      </c>
+      <c r="K408" s="10">
+        <v>5049</v>
+      </c>
+      <c r="L408" s="10">
+        <v>1795.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C409" s="10">
+        <v>767.7</v>
+      </c>
+      <c r="D409" s="10">
+        <v>12830</v>
+      </c>
+      <c r="E409" s="10">
+        <v>2957.5</v>
+      </c>
+      <c r="F409" s="10">
+        <v>4512</v>
+      </c>
+      <c r="G409" s="10">
+        <v>1857</v>
+      </c>
+      <c r="H409" s="10">
+        <v>1273.5</v>
+      </c>
+      <c r="I409" s="10">
+        <v>3465</v>
+      </c>
+      <c r="J409" s="10">
+        <v>5721</v>
+      </c>
+      <c r="K409" s="10">
+        <v>5009</v>
+      </c>
+      <c r="L409" s="10">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C410" s="10">
+        <v>737.2</v>
+      </c>
+      <c r="D410" s="10">
+        <v>13160</v>
+      </c>
+      <c r="E410" s="10">
+        <v>3095</v>
+      </c>
+      <c r="F410" s="10">
+        <v>4421</v>
+      </c>
+      <c r="G410" s="10">
+        <v>1908.5</v>
+      </c>
+      <c r="H410" s="10">
+        <v>1460.5</v>
+      </c>
+      <c r="I410" s="10">
+        <v>3650</v>
+      </c>
+      <c r="J410" s="10">
+        <v>5936</v>
+      </c>
+      <c r="K410" s="10">
+        <v>4230</v>
+      </c>
+      <c r="L410" s="10">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C411" s="10">
+        <v>800.4</v>
+      </c>
+      <c r="D411" s="10">
+        <v>12965</v>
+      </c>
+      <c r="E411" s="10">
+        <v>3426</v>
+      </c>
+      <c r="F411" s="10">
+        <v>4527</v>
+      </c>
+      <c r="G411" s="10">
+        <v>2308.5</v>
+      </c>
+      <c r="H411" s="10">
+        <v>1753.5</v>
+      </c>
+      <c r="I411" s="10">
+        <v>3858</v>
+      </c>
+      <c r="J411" s="10">
+        <v>6542</v>
+      </c>
+      <c r="K411" s="10">
+        <v>4631</v>
+      </c>
+      <c r="L411" s="10">
+        <v>2440</v>
       </c>
     </row>
   </sheetData>
